--- a/sriramModel-nelson-atypical-patientID_1-sims-acth-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_1-sims-acth-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>33.52763721670794</v>
+        <v>33.54994483592559</v>
       </c>
       <c r="C2">
-        <v>33.62170234014002</v>
+        <v>33.54661223542136</v>
       </c>
       <c r="D2">
-        <v>33.53366573801181</v>
+        <v>33.53182184011818</v>
       </c>
       <c r="E2">
-        <v>33.5337985924104</v>
+        <v>33.63920788659291</v>
       </c>
       <c r="F2">
-        <v>33.52749838265503</v>
+        <v>33.51994542428231</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>33.45669553935928</v>
+        <v>33.50209612129115</v>
       </c>
       <c r="C3">
-        <v>33.6639965570914</v>
+        <v>33.49372620354935</v>
       </c>
       <c r="D3">
-        <v>33.46919963256931</v>
+        <v>33.46505770765377</v>
       </c>
       <c r="E3">
-        <v>33.46894286375225</v>
+        <v>33.69971264642489</v>
       </c>
       <c r="F3">
-        <v>33.45681225916514</v>
+        <v>33.44360060254727</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>33.38711828401748</v>
+        <v>33.45622026423285</v>
       </c>
       <c r="C4">
-        <v>33.72638801909833</v>
+        <v>33.44129579192833</v>
       </c>
       <c r="D4">
-        <v>33.40645385536695</v>
+        <v>33.39964733790845</v>
       </c>
       <c r="E4">
-        <v>33.40536123555717</v>
+        <v>33.77757291725415</v>
       </c>
       <c r="F4">
-        <v>33.38784199210593</v>
+        <v>33.37065730383159</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>33.31884908421537</v>
+        <v>33.4120827762787</v>
       </c>
       <c r="C5">
-        <v>33.80725695468531</v>
+        <v>33.38927509383355</v>
       </c>
       <c r="D5">
-        <v>33.34528755269572</v>
+        <v>33.33552842929373</v>
       </c>
       <c r="E5">
-        <v>33.3429839843124</v>
+        <v>33.86512528454506</v>
       </c>
       <c r="F5">
-        <v>33.32049060115948</v>
+        <v>33.30082609883901</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>33.25183192920142</v>
+        <v>33.36945002691703</v>
       </c>
       <c r="C6">
-        <v>33.90165728772895</v>
+        <v>33.33762000520423</v>
       </c>
       <c r="D6">
-        <v>33.28556655946612</v>
+        <v>33.27264011483074</v>
       </c>
       <c r="E6">
-        <v>33.28174320587303</v>
+        <v>33.95046345411547</v>
       </c>
       <c r="F6">
-        <v>33.25466373278446</v>
+        <v>33.23383506154399</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>33.18601120126596</v>
+        <v>33.32809110865877</v>
       </c>
       <c r="C7">
-        <v>33.99751917761291</v>
+        <v>33.28628761356681</v>
       </c>
       <c r="D7">
-        <v>33.22716312624972</v>
+        <v>33.21092251132412</v>
       </c>
       <c r="E7">
-        <v>33.22157277930986</v>
+        <v>34.01974046410948</v>
       </c>
       <c r="F7">
-        <v>33.19026962896202</v>
+        <v>33.16942848490579</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>33.12133171254693</v>
+        <v>33.28777947064155</v>
       </c>
       <c r="C8">
-        <v>34.07420264248243</v>
+        <v>33.23523607598027</v>
       </c>
       <c r="D8">
-        <v>33.16995565852019</v>
+        <v>33.15031651798314</v>
       </c>
       <c r="E8">
-        <v>33.16240833200506</v>
+        <v>34.06216850610202</v>
       </c>
       <c r="F8">
-        <v>33.12721909493046</v>
+        <v>33.10736604868944</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.05773873984341</v>
+        <v>33.24829419785353</v>
       </c>
       <c r="C9">
-        <v>34.11173111183116</v>
+        <v>33.18442473635491</v>
       </c>
       <c r="D9">
-        <v>33.11382846723386</v>
+        <v>33.09076384585784</v>
       </c>
       <c r="E9">
-        <v>33.1041872047176</v>
+        <v>34.07389605592102</v>
       </c>
       <c r="F9">
-        <v>33.06542546715163</v>
+        <v>33.0474221373139</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.99517805900791</v>
+        <v>33.20942094874358</v>
       </c>
       <c r="C10">
-        <v>34.10515577321555</v>
+        <v>33.13381406996562</v>
       </c>
       <c r="D10">
-        <v>33.05867152990354</v>
+        <v>33.03220695439716</v>
       </c>
       <c r="E10">
-        <v>33.04684841713863</v>
+        <v>34.05754112795575</v>
       </c>
       <c r="F10">
-        <v>33.00480458012072</v>
+        <v>32.98938514040996</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.93359597819903</v>
+        <v>33.17095259566058</v>
       </c>
       <c r="C11">
-        <v>34.06409721882407</v>
+        <v>33.08336568525544</v>
       </c>
       <c r="D11">
-        <v>33.0043802614648</v>
+        <v>32.97458907078091</v>
       </c>
       <c r="E11">
-        <v>32.99033263368007</v>
+        <v>34.01889636322403</v>
       </c>
       <c r="F11">
-        <v>32.94527473308339</v>
+        <v>32.9330566050746</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.8729393698228</v>
+        <v>33.13268958323235</v>
       </c>
       <c r="C12">
-        <v>34.00130067552561</v>
+        <v>33.0330422781822</v>
       </c>
       <c r="D12">
-        <v>32.95085529432278</v>
+        <v>32.91785417296904</v>
       </c>
       <c r="E12">
-        <v>32.93458212951857</v>
+        <v>33.96400520959594</v>
       </c>
       <c r="F12">
-        <v>32.88675665601472</v>
+        <v>32.87825048287233</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.81315570137735</v>
+        <v>33.09444007897768</v>
       </c>
       <c r="C13">
-        <v>33.92612045489642</v>
+        <v>32.98280760839419</v>
       </c>
       <c r="D13">
-        <v>32.89800226703445</v>
+        <v>32.86194699443823</v>
       </c>
       <c r="E13">
-        <v>32.87954075682794</v>
+        <v>33.89780661028327</v>
       </c>
       <c r="F13">
-        <v>32.82917347513461</v>
+        <v>32.82479247110804</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.75419306518923</v>
+        <v>33.05602003767475</v>
       </c>
       <c r="C14">
-        <v>33.84410282568637</v>
+        <v>32.93262651441291</v>
       </c>
       <c r="D14">
-        <v>32.84573162114565</v>
+        <v>32.80681302928494</v>
       </c>
       <c r="E14">
-        <v>32.82515391116294</v>
+        <v>33.82390118305776</v>
       </c>
       <c r="F14">
-        <v>32.77245067802571</v>
+        <v>32.77251939389527</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.6960002070062</v>
+        <v>33.01725331855396</v>
       </c>
       <c r="C15">
-        <v>33.75829320294424</v>
+        <v>32.88246487506169</v>
       </c>
       <c r="D15">
-        <v>32.79395840575605</v>
+        <v>32.75239852680545</v>
       </c>
       <c r="E15">
-        <v>32.77136849796825</v>
+        <v>33.74477210588334</v>
       </c>
       <c r="F15">
-        <v>32.71651607823769</v>
+        <v>32.7212785978107</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.63852655337119</v>
+        <v>32.97797203424046</v>
       </c>
       <c r="C16">
-        <v>33.67033714395198</v>
+        <v>32.83228960737271</v>
       </c>
       <c r="D16">
-        <v>32.74260208942688</v>
+        <v>32.6986504999346</v>
       </c>
       <c r="E16">
-        <v>32.71813289918487</v>
+        <v>33.66209088963971</v>
       </c>
       <c r="F16">
-        <v>32.6612997794771</v>
+        <v>32.67092726196194</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.58172223778682</v>
+        <v>32.9380172327736</v>
       </c>
       <c r="C17">
-        <v>33.58113343929217</v>
+        <v>32.78206865594421</v>
       </c>
       <c r="D17">
-        <v>32.69158637908536</v>
+        <v>32.64551672810293</v>
       </c>
       <c r="E17">
-        <v>32.66539693993172</v>
+        <v>33.57697390126053</v>
       </c>
       <c r="F17">
-        <v>32.60673413938986</v>
+        <v>32.62133174443818</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.52553812575319</v>
+        <v>32.89723997885776</v>
       </c>
       <c r="C18">
-        <v>33.49118392952337</v>
+        <v>32.73177098706744</v>
       </c>
       <c r="D18">
-        <v>32.64083904562783</v>
+        <v>32.59294575779061</v>
       </c>
       <c r="E18">
-        <v>32.61311185524577</v>
+        <v>33.49016807743268</v>
       </c>
       <c r="F18">
-        <v>32.552753732956</v>
+        <v>32.57236813422428</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.46992583851628</v>
+        <v>32.8555027861029</v>
       </c>
       <c r="C19">
-        <v>33.40077622317924</v>
+        <v>32.68136655807214</v>
       </c>
       <c r="D19">
-        <v>32.59029175588091</v>
+        <v>32.54088690695416</v>
       </c>
       <c r="E19">
-        <v>32.56123025686657</v>
+        <v>33.40217665267926</v>
       </c>
       <c r="F19">
-        <v>32.49929531553201</v>
+        <v>32.52392031291495</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.4148377756647</v>
+        <v>32.81268128885255</v>
       </c>
       <c r="C20">
-        <v>33.31007963978912</v>
+        <v>32.63082628260062</v>
       </c>
       <c r="D20">
-        <v>32.5398799107253</v>
+        <v>32.48929026642637</v>
       </c>
       <c r="E20">
-        <v>32.50970610005487</v>
+        <v>33.31334204516173</v>
       </c>
       <c r="F20">
-        <v>32.44629778556819</v>
+        <v>32.47588009219678</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.36022713647842</v>
+        <v>32.76866568822718</v>
       </c>
       <c r="C21">
-        <v>33.21919650414854</v>
+        <v>32.58012209759218</v>
       </c>
       <c r="D21">
-        <v>32.48954248916773</v>
+        <v>32.43810670774403</v>
       </c>
       <c r="E21">
-        <v>32.45849465043925</v>
+        <v>33.22389989694319</v>
       </c>
       <c r="F21">
-        <v>32.39370214703036</v>
+        <v>32.42814647347876</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.30604794005006</v>
+        <v>32.7233621425631</v>
       </c>
       <c r="C22">
-        <v>33.12819021069718</v>
+        <v>32.5292268845961</v>
       </c>
       <c r="D22">
-        <v>32.43922189799223</v>
+        <v>32.38728788031326</v>
       </c>
       <c r="E22">
-        <v>32.40755245088653</v>
+        <v>33.1340143460192</v>
       </c>
       <c r="F22">
-        <v>32.34145147155851</v>
+        <v>32.38062539060913</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.25225504422753</v>
+        <v>32.67669345196845</v>
       </c>
       <c r="C23">
-        <v>33.03710096161214</v>
+        <v>32.47811439682641</v>
       </c>
       <c r="D23">
-        <v>32.3888638269428</v>
+        <v>32.3367862330302</v>
       </c>
       <c r="E23">
-        <v>32.35683728839601</v>
+        <v>33.04380110603773</v>
       </c>
       <c r="F23">
-        <v>32.28949086039388</v>
+        <v>32.3332295727034</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.19880416326231</v>
+        <v>32.62859907221823</v>
       </c>
       <c r="C24">
-        <v>32.94595481210555</v>
+        <v>32.42675949283044</v>
       </c>
       <c r="D24">
-        <v>32.33841710914602</v>
+        <v>32.28655499966209</v>
       </c>
       <c r="E24">
-        <v>32.30630816101939</v>
+        <v>32.95334282671058</v>
       </c>
       <c r="F24">
-        <v>32.23776740610776</v>
+        <v>32.28587798211276</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>32.14565188432309</v>
+        <v>32.57903459988056</v>
       </c>
       <c r="C25">
-        <v>32.85476899390331</v>
+        <v>32.37513785811633</v>
       </c>
       <c r="D25">
-        <v>32.28783358663051</v>
+        <v>32.23654822891345</v>
       </c>
       <c r="E25">
-        <v>32.2559252448118</v>
+        <v>32.8626992637334</v>
       </c>
       <c r="F25">
-        <v>32.18623015416425</v>
+        <v>32.23849549575509</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>32.09275568271912</v>
+        <v>32.5279706987193</v>
       </c>
       <c r="C26">
-        <v>32.76355511984081</v>
+        <v>32.32322604812555</v>
       </c>
       <c r="D26">
-        <v>32.2370679807586</v>
+        <v>32.18672077069306</v>
       </c>
       <c r="E26">
-        <v>32.20564986082161</v>
+        <v>32.77191402520668</v>
       </c>
       <c r="F26">
-        <v>32.13483006435176</v>
+        <v>32.19101244566401</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>32.04007393594659</v>
+        <v>32.47539168409919</v>
       </c>
       <c r="C27">
-        <v>32.67232115433372</v>
+        <v>32.2710015472395</v>
       </c>
       <c r="D27">
-        <v>32.18607776740339</v>
+        <v>32.13702830120985</v>
       </c>
       <c r="E27">
-        <v>32.15544444212966</v>
+        <v>32.68101937411009</v>
       </c>
       <c r="F27">
-        <v>32.08351997211582</v>
+        <v>32.14336430736604</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>31.98756593654335</v>
+        <v>32.42129390455734</v>
       </c>
       <c r="C28">
-        <v>32.58107264946915</v>
+        <v>32.21844267175565</v>
       </c>
       <c r="D28">
-        <v>32.13482305671828</v>
+        <v>32.08742731694703</v>
       </c>
       <c r="E28">
-        <v>32.10527250095194</v>
+        <v>32.59003942186797</v>
       </c>
       <c r="F28">
-        <v>32.03225454982691</v>
+        <v>32.09549161180801</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>31.93519190369466</v>
+        <v>32.36568407094142</v>
       </c>
       <c r="C29">
-        <v>32.48981353502381</v>
+        <v>32.16552861517043</v>
       </c>
       <c r="D29">
-        <v>32.08326647734381</v>
+        <v>32.03787514897562</v>
       </c>
       <c r="E29">
-        <v>32.05509859582141</v>
+        <v>32.49899235840661</v>
       </c>
       <c r="F29">
-        <v>31.9809902680168</v>
+        <v>32.0473390841691</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>31.88291299372515</v>
+        <v>32.30857768738989</v>
       </c>
       <c r="C30">
-        <v>32.3985466323056</v>
+        <v>32.11223943349087</v>
       </c>
       <c r="D30">
-        <v>32.03137306491112</v>
+        <v>31.98832996816588</v>
       </c>
       <c r="E30">
-        <v>32.00488829886925</v>
+        <v>32.40789204835798</v>
       </c>
       <c r="F30">
-        <v>31.92968535661653</v>
+        <v>31.99885581963503</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>31.8306913093407</v>
+        <v>32.24999751663501</v>
       </c>
       <c r="C31">
-        <v>32.30727399394822</v>
+        <v>32.05855601218217</v>
       </c>
       <c r="D31">
-        <v>31.97911015470473</v>
+        <v>31.93875079790866</v>
       </c>
       <c r="E31">
-        <v>31.95460816322805</v>
+        <v>32.31674919003891</v>
       </c>
       <c r="F31">
-        <v>31.87829976622995</v>
+        <v>31.94999507694263</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>31.77848990775713</v>
+        <v>32.18997211647814</v>
       </c>
       <c r="C32">
-        <v>32.21599713206803</v>
+        <v>32.00446008763038</v>
       </c>
       <c r="D32">
-        <v>31.92644727834652</v>
+        <v>31.88909751646187</v>
       </c>
       <c r="E32">
-        <v>31.90422569058405</v>
+        <v>32.22557209683315</v>
       </c>
       <c r="F32">
-        <v>31.8267951294669</v>
+        <v>31.90071382475357</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>31.72627280766564</v>
+        <v>32.12853471508412</v>
       </c>
       <c r="C33">
-        <v>32.12471717370233</v>
+        <v>31.94993419757713</v>
       </c>
       <c r="D33">
-        <v>31.87335606437572</v>
+        <v>31.83933088035599</v>
       </c>
       <c r="E33">
-        <v>31.85370929890941</v>
+        <v>32.13436726341538</v>
       </c>
       <c r="F33">
-        <v>31.77513472237895</v>
+        <v>31.85097275039275</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>31.67400499503939</v>
+        <v>32.06572210023551</v>
       </c>
       <c r="C34">
-        <v>32.03343496815795</v>
+        <v>31.89496168008007</v>
       </c>
       <c r="D34">
-        <v>31.81981014259408</v>
+        <v>31.78941251138408</v>
       </c>
       <c r="E34">
-        <v>31.80302829040927</v>
+        <v>32.04313980237933</v>
       </c>
       <c r="F34">
-        <v>31.72328342602973</v>
+        <v>31.8007358350326</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>31.62165242787673</v>
+        <v>32.00157373905977</v>
       </c>
       <c r="C35">
-        <v>31.94215116213786</v>
+        <v>31.83952666143442</v>
       </c>
       <c r="D35">
-        <v>31.76578505206214</v>
+        <v>31.73930491509077</v>
       </c>
       <c r="E35">
-        <v>31.75215281972504</v>
+        <v>31.95189379165085</v>
       </c>
       <c r="F35">
-        <v>31.67120768821278</v>
+        <v>31.74997028871024</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>31.56918203977603</v>
+        <v>31.93613097368027</v>
       </c>
       <c r="C36">
-        <v>31.8508662528638</v>
+        <v>31.78361402718892</v>
       </c>
       <c r="D36">
-        <v>31.71125815262511</v>
+        <v>31.68897151233033</v>
       </c>
       <c r="E36">
-        <v>31.70105386243876</v>
+        <v>31.86063250260016</v>
       </c>
       <c r="F36">
-        <v>31.61887548536357</v>
+        <v>31.69864617632595</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>31.51656174249566</v>
+        <v>31.86943638987844</v>
       </c>
       <c r="C37">
-        <v>31.75958062618329</v>
+        <v>31.72720942374332</v>
       </c>
       <c r="D37">
-        <v>31.65620853985396</v>
+        <v>31.63837661347804</v>
       </c>
       <c r="E37">
-        <v>31.6497031839348</v>
+        <v>31.76935857220735</v>
       </c>
       <c r="F37">
-        <v>31.56625628468499</v>
+        <v>31.646736319437</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>31.46376042741052</v>
+        <v>31.80153325938246</v>
       </c>
       <c r="C38">
-        <v>31.66829458413219</v>
+        <v>31.6702992338027</v>
       </c>
       <c r="D38">
-        <v>31.60061696329289</v>
+        <v>31.58748543402642</v>
       </c>
       <c r="E38">
-        <v>31.59807330867664</v>
+        <v>31.67807413744178</v>
       </c>
       <c r="F38">
-        <v>31.51332100652129</v>
+        <v>31.59421613082461</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>31.4107479659392</v>
+        <v>31.73246510070492</v>
       </c>
       <c r="C39">
-        <v>31.57700836509454</v>
+        <v>31.6128705692914</v>
       </c>
       <c r="D39">
-        <v>31.54446574789891</v>
+        <v>31.53626412780991</v>
       </c>
       <c r="E39">
-        <v>31.5461374899698</v>
+        <v>31.58678094454009</v>
       </c>
       <c r="F39">
-        <v>31.46004198699882</v>
+        <v>31.54106339076314</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>31.35749520898414</v>
+        <v>31.66227529968816</v>
       </c>
       <c r="C40">
-        <v>31.48572215869125</v>
+        <v>31.5549112592253</v>
       </c>
       <c r="D40">
-        <v>31.48773871857842</v>
+        <v>31.48467979329605</v>
       </c>
       <c r="E40">
-        <v>31.49386968028838</v>
+        <v>31.49548042882042</v>
       </c>
       <c r="F40">
-        <v>31.40639294095742</v>
+        <v>31.48725820992841</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>31.30397398532591</v>
+        <v>31.59100682228927</v>
       </c>
       <c r="C41">
-        <v>31.3944361168755</v>
+        <v>31.49640983159444</v>
       </c>
       <c r="D41">
-        <v>31.43042112771032</v>
+        <v>31.4327004449639</v>
       </c>
       <c r="E41">
-        <v>31.44124450225839</v>
+        <v>31.4041737867841</v>
       </c>
       <c r="F41">
-        <v>31.35234892521174</v>
+        <v>31.43278280352338</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>31.25015709911818</v>
+        <v>31.51870199568825</v>
       </c>
       <c r="C42">
-        <v>31.30315036226978</v>
+        <v>31.43735550560092</v>
       </c>
       <c r="D42">
-        <v>31.37249958555918</v>
+        <v>31.38029505887811</v>
       </c>
       <c r="E42">
-        <v>31.38823722040295</v>
+        <v>31.31286201994848</v>
       </c>
       <c r="F42">
-        <v>31.29788630214998</v>
+        <v>31.37762140181522</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>31.1960183263823</v>
+        <v>31.44540229816315</v>
       </c>
       <c r="C43">
-        <v>31.21186499450359</v>
+        <v>31.37773817238553</v>
       </c>
       <c r="D43">
-        <v>31.31396199348194</v>
+        <v>31.32743358592422</v>
       </c>
       <c r="E43">
-        <v>31.33482371376091</v>
+        <v>31.22154595335698</v>
       </c>
       <c r="F43">
-        <v>31.24298270370529</v>
+        <v>31.32176010363398</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>31.14153241062126</v>
+        <v>31.37114819703527</v>
       </c>
       <c r="C44">
-        <v>31.12058009503345</v>
+        <v>31.31754838303328</v>
       </c>
       <c r="D44">
-        <v>31.25479747982895</v>
+        <v>31.27408693253041</v>
       </c>
       <c r="E44">
-        <v>31.28098044951854</v>
+        <v>31.13022627898171</v>
       </c>
       <c r="F44">
-        <v>31.18761699569853</v>
+        <v>31.26518673619118</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>31.08667505754963</v>
+        <v>31.29597905512152</v>
       </c>
       <c r="C45">
-        <v>31.02929573085726</v>
+        <v>31.25677733135207</v>
       </c>
       <c r="D45">
-        <v>31.19499633845594</v>
+        <v>31.22022699050675</v>
       </c>
       <c r="E45">
-        <v>31.22668445780421</v>
+        <v>31.03890357900657</v>
       </c>
       <c r="F45">
-        <v>31.13176924260086</v>
+        <v>31.2078907676447</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>31.03142292893461</v>
+        <v>31.21993306331981</v>
       </c>
       <c r="C46">
-        <v>30.93801195740809</v>
+        <v>31.1954168416681</v>
       </c>
       <c r="D46">
-        <v>31.13454996974976</v>
+        <v>31.16582662999786</v>
       </c>
       <c r="E46">
-        <v>31.17191330782379</v>
+        <v>30.94757834773056</v>
       </c>
       <c r="F46">
-        <v>31.07542067271937</v>
+        <v>31.14986315472313</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>30.97575363565743</v>
+        <v>31.14304718866287</v>
       </c>
       <c r="C47">
-        <v>30.84672882079952</v>
+        <v>31.13345936060655</v>
       </c>
       <c r="D47">
-        <v>31.07345082408442</v>
+        <v>31.11085972621091</v>
       </c>
       <c r="E47">
-        <v>31.11664508552559</v>
+        <v>30.85625100841706</v>
       </c>
       <c r="F47">
-        <v>31.01855364382428</v>
+        <v>31.09109629743495</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>30.91964572992369</v>
+        <v>31.06535713945647</v>
       </c>
       <c r="C48">
-        <v>30.75544635959732</v>
+        <v>31.07089793974795</v>
       </c>
       <c r="D48">
-        <v>31.01169234762159</v>
+        <v>31.05530115997088</v>
       </c>
       <c r="E48">
-        <v>31.06085837300731</v>
+        <v>30.76492192319796</v>
       </c>
       <c r="F48">
-        <v>30.96115160924325</v>
+        <v>31.03158388709659</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>30.86307869674494</v>
+        <v>30.98689733559741</v>
       </c>
       <c r="C49">
-        <v>30.66416460621664</v>
+        <v>31.00772619855766</v>
       </c>
       <c r="D49">
-        <v>30.94926893037131</v>
+        <v>30.99912680855009</v>
       </c>
       <c r="E49">
-        <v>31.0045322299722</v>
+        <v>30.67359140280529</v>
       </c>
       <c r="F49">
-        <v>30.90319908440589</v>
+        <v>30.97132087269107</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>30.80603294466483</v>
+        <v>30.9077009250036</v>
       </c>
       <c r="C50">
-        <v>30.57288358803485</v>
+        <v>30.94393835753614</v>
       </c>
       <c r="D50">
-        <v>30.88617585643755</v>
+        <v>30.94231356336999</v>
       </c>
       <c r="E50">
-        <v>30.94764617737535</v>
+        <v>30.58225971491936</v>
       </c>
       <c r="F50">
-        <v>30.84468161390835</v>
+        <v>30.91030333966338</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>30.74848979577081</v>
+        <v>30.82779972266223</v>
       </c>
       <c r="C51">
-        <v>30.4816033282815</v>
+        <v>30.87952919355704</v>
       </c>
       <c r="D51">
-        <v>30.82240925636568</v>
+        <v>30.88483935990973</v>
       </c>
       <c r="E51">
-        <v>30.89018018370564</v>
+        <v>30.49092708928517</v>
       </c>
       <c r="F51">
-        <v>30.78558573906322</v>
+        <v>30.84852844600178</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>30.69043147505935</v>
+        <v>30.74722434892761</v>
       </c>
       <c r="C52">
-        <v>30.39032384675245</v>
+        <v>30.81449402781693</v>
       </c>
       <c r="D52">
-        <v>30.75796606151865</v>
+        <v>30.82668315157389</v>
       </c>
       <c r="E52">
-        <v>30.83211465415263</v>
+        <v>30.39959372542406</v>
       </c>
       <c r="F52">
-        <v>30.72589896597115</v>
+        <v>30.78599435509651</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>30.63184109911702</v>
+        <v>30.66600409188708</v>
       </c>
       <c r="C53">
-        <v>30.29904516039121</v>
+        <v>30.74882869935772</v>
       </c>
       <c r="D53">
-        <v>30.69284396040683</v>
+        <v>30.7678248946735</v>
       </c>
       <c r="E53">
-        <v>30.7734304230407</v>
+        <v>30.30825979723346</v>
       </c>
       <c r="F53">
-        <v>30.66560973411364</v>
+        <v>30.72270013540074</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>30.57270266423307</v>
+        <v>30.58416711747029</v>
       </c>
       <c r="C54">
-        <v>30.20776728376394</v>
+        <v>30.68252959094873</v>
       </c>
       <c r="D54">
-        <v>30.62704135690015</v>
+        <v>30.7082456291602</v>
       </c>
       <c r="E54">
-        <v>30.71410874991368</v>
+        <v>30.21692545711247</v>
       </c>
       <c r="F54">
-        <v>30.60470738547153</v>
+        <v>30.65864573450535</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>30.5130010338997</v>
+        <v>30.5017403613423</v>
       </c>
       <c r="C55">
-        <v>30.11649022943412</v>
+        <v>30.6155935840445</v>
       </c>
       <c r="D55">
-        <v>30.56055733025516</v>
+        <v>30.64792743068207</v>
       </c>
       <c r="E55">
-        <v>30.65413131967771</v>
+        <v>30.12559084010964</v>
       </c>
       <c r="F55">
-        <v>30.54318213420744</v>
+        <v>30.59383187375362</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>30.45272192577901</v>
+        <v>30.41874965610599</v>
       </c>
       <c r="C56">
-        <v>30.02521400828112</v>
+        <v>30.54801804670272</v>
       </c>
       <c r="D56">
-        <v>30.49339159688682</v>
+        <v>30.58685336209125</v>
       </c>
       <c r="E56">
-        <v>30.5934802472147</v>
+        <v>30.03425606370388</v>
       </c>
       <c r="F56">
-        <v>30.48102503688692</v>
+        <v>30.52826003184733</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>30.39185189816422</v>
+        <v>30.33521971486164</v>
       </c>
       <c r="C57">
-        <v>29.9339386297615</v>
+        <v>30.47980082465413</v>
       </c>
       <c r="D57">
-        <v>30.42554447382157</v>
+        <v>30.52500759706507</v>
       </c>
       <c r="E57">
-        <v>30.53213808690896</v>
+        <v>29.94292123338994</v>
       </c>
       <c r="F57">
-        <v>30.41822796326901</v>
+        <v>30.46193235293759</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>30.33037833593479</v>
+        <v>30.25117418800073</v>
       </c>
       <c r="C58">
-        <v>29.84266410212496</v>
+        <v>30.41094023326341</v>
       </c>
       <c r="D58">
-        <v>30.35701684376637</v>
+        <v>30.4623753506783</v>
       </c>
       <c r="E58">
-        <v>30.47008784747922</v>
+        <v>29.85158644008162</v>
       </c>
       <c r="F58">
-        <v>30.35478356764064</v>
+        <v>30.39485162630795</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>30.26828943609286</v>
+        <v>30.16663569757946</v>
       </c>
       <c r="C59">
-        <v>29.75139043259071</v>
+        <v>30.34143503555931</v>
       </c>
       <c r="D59">
-        <v>30.2878101217342</v>
+        <v>30.39894284670653</v>
       </c>
       <c r="E59">
-        <v>30.40731301253318</v>
+        <v>29.76025176562933</v>
       </c>
       <c r="F59">
-        <v>30.29068526073709</v>
+        <v>30.32702121738819</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>30.20557419285329</v>
+        <v>30.08162587206835</v>
       </c>
       <c r="C60">
-        <v>29.66011762749759</v>
+        <v>30.27128443937121</v>
       </c>
       <c r="D60">
-        <v>30.21792622317806</v>
+        <v>30.33469736748529</v>
       </c>
       <c r="E60">
-        <v>30.34379756716738</v>
+        <v>29.6689172812073</v>
       </c>
       <c r="F60">
-        <v>30.22592718223468</v>
+        <v>30.25844503125082</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>30.14222238236563</v>
+        <v>29.99616539695807</v>
       </c>
       <c r="C61">
-        <v>29.56884569242964</v>
+        <v>30.20048806904583</v>
       </c>
       <c r="D61">
-        <v>30.14736753354761</v>
+        <v>30.26962728228541</v>
       </c>
       <c r="E61">
-        <v>30.27952603088636</v>
+        <v>29.57758305071426</v>
       </c>
       <c r="F61">
-        <v>30.16050417381583</v>
+        <v>30.18912747430157</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>30.0782245470787</v>
+        <v>29.91027404506591</v>
       </c>
       <c r="C62">
-        <v>29.47757463232024</v>
+        <v>30.12904595970453</v>
       </c>
       <c r="D62">
-        <v>30.07613687916143</v>
+        <v>30.20372197556912</v>
       </c>
       <c r="E62">
-        <v>30.21448349701494</v>
+        <v>29.4862491310956</v>
       </c>
       <c r="F62">
-        <v>30.09441175282355</v>
+        <v>30.11907339734191</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>30.01357197977315</v>
+        <v>29.82397072772135</v>
       </c>
       <c r="C63">
-        <v>29.38630445154141</v>
+        <v>30.05695854607215</v>
       </c>
       <c r="D63">
-        <v>30.00423749958405</v>
+        <v>30.1369718209718</v>
       </c>
       <c r="E63">
-        <v>30.14865567860306</v>
+        <v>29.39491557150884</v>
       </c>
       <c r="F63">
-        <v>30.02764608646325</v>
+        <v>30.04828808251606</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>29.94825670731863</v>
+        <v>29.73727352278208</v>
       </c>
       <c r="C64">
-        <v>29.29503515397852</v>
+        <v>29.98422666310128</v>
       </c>
       <c r="D64">
-        <v>29.9316730211351</v>
+        <v>30.06936831788261</v>
       </c>
       <c r="E64">
-        <v>30.08202896070163</v>
+        <v>29.30358241782095</v>
       </c>
       <c r="F64">
-        <v>29.96020396662559</v>
+        <v>29.97677718532983</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>29.88227147415076</v>
+        <v>29.650199720286</v>
       </c>
       <c r="C65">
-        <v>29.20376674309431</v>
+        <v>29.91085149728897</v>
       </c>
       <c r="D65">
-        <v>29.85844743166436</v>
+        <v>30.00090397954986</v>
       </c>
       <c r="E65">
-        <v>30.01459045861435</v>
+        <v>29.21224971382586</v>
       </c>
       <c r="F65">
-        <v>29.89208278526768</v>
+        <v>29.90454673377554</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>29.81560972553176</v>
+        <v>29.56276584645552</v>
       </c>
       <c r="C66">
-        <v>29.11249922198321</v>
+        <v>29.83683459970753</v>
       </c>
       <c r="D66">
-        <v>29.78456505647436</v>
+        <v>29.93157223245402</v>
       </c>
       <c r="E66">
-        <v>29.94632808153233</v>
+        <v>29.12091749383418</v>
       </c>
       <c r="F66">
-        <v>29.82328051038218</v>
+        <v>29.8316030345457</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>29.74826559060023</v>
+        <v>29.47498771086628</v>
       </c>
       <c r="C67">
-        <v>29.02123259341772</v>
+        <v>29.76217787611051</v>
       </c>
       <c r="D67">
-        <v>29.71003053545064</v>
+        <v>29.86136764954756</v>
       </c>
       <c r="E67">
-        <v>29.87723060065818</v>
+        <v>29.02958578854139</v>
       </c>
       <c r="F67">
-        <v>29.75379566254169</v>
+        <v>29.7579527206255</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>29.68023386524854</v>
+        <v>29.38688042721865</v>
       </c>
       <c r="C68">
-        <v>28.9299668598885</v>
+        <v>29.68688357201195</v>
       </c>
       <c r="D68">
-        <v>29.6348488011857</v>
+        <v>29.79028578710895</v>
       </c>
       <c r="E68">
-        <v>29.80728772063584</v>
+        <v>28.9382546355385</v>
       </c>
       <c r="F68">
-        <v>29.68362729200606</v>
+        <v>29.6836026862537</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>29.61150999486041</v>
+        <v>29.29845845513275</v>
       </c>
       <c r="C69">
-        <v>28.83870202363847</v>
+        <v>29.61095423933459</v>
       </c>
       <c r="D69">
-        <v>29.5590250582125</v>
+        <v>29.71832311622271</v>
       </c>
       <c r="E69">
-        <v>29.73649015282761</v>
+        <v>28.84692406433</v>
       </c>
       <c r="F69">
-        <v>29.61277495642735</v>
+        <v>29.60855998679654</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>29.54209005692251</v>
+        <v>29.20973562558101</v>
       </c>
       <c r="C70">
-        <v>28.74743808669253</v>
+        <v>29.53439274386044</v>
       </c>
       <c r="D70">
-        <v>29.48256476319147</v>
+        <v>29.64547713764286</v>
       </c>
       <c r="E70">
-        <v>29.66482968868796</v>
+        <v>28.75559408959329</v>
       </c>
       <c r="F70">
-        <v>29.54123869910885</v>
+        <v>29.53283202344116</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>29.47197074355413</v>
+        <v>29.12072517201194</v>
       </c>
       <c r="C71">
-        <v>28.65617505088309</v>
+        <v>29.45720226578217</v>
       </c>
       <c r="D71">
-        <v>29.40547360608314</v>
+        <v>29.57174636703443</v>
       </c>
       <c r="E71">
-        <v>29.59229927124344</v>
+        <v>28.66426474358993</v>
       </c>
       <c r="F71">
-        <v>29.46901902784084</v>
+        <v>29.45642627603943</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>29.40114934396564</v>
+        <v>29.0314397618738</v>
       </c>
       <c r="C72">
-        <v>28.5649129178723</v>
+        <v>29.37938625896637</v>
       </c>
       <c r="D72">
-        <v>29.32775749222086</v>
+        <v>29.49713022318423</v>
       </c>
       <c r="E72">
-        <v>29.51889306256777</v>
+        <v>28.57293605170494</v>
       </c>
       <c r="F72">
-        <v>29.39611689427923</v>
+        <v>29.37935039941476</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>29.32962372688141</v>
+        <v>28.94189151636694</v>
       </c>
       <c r="C73">
-        <v>28.47365168917132</v>
+        <v>29.30094844733674</v>
       </c>
       <c r="D73">
-        <v>29.24942252526846</v>
+        <v>29.42162901207529</v>
       </c>
       <c r="E73">
-        <v>29.4446065050007</v>
+        <v>28.48160802232796</v>
       </c>
       <c r="F73">
-        <v>29.32253367389396</v>
+        <v>29.30161230339515</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>29.25739232294769</v>
+        <v>28.85209204605473</v>
       </c>
       <c r="C74">
-        <v>28.38239136615715</v>
+        <v>29.22189281985026</v>
       </c>
       <c r="D74">
-        <v>29.1704749910267</v>
+        <v>29.34524407673664</v>
       </c>
       <c r="E74">
-        <v>29.36943637392628</v>
+        <v>28.3902806789023</v>
       </c>
       <c r="F74">
-        <v>29.24827114647043</v>
+        <v>29.22321991714908</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>29.1844541071496</v>
+        <v>28.76205246464026</v>
       </c>
       <c r="C75">
-        <v>28.29113195008738</v>
+        <v>29.1422236437617</v>
       </c>
       <c r="D75">
-        <v>29.09092134203103</v>
+        <v>29.26797763307188</v>
       </c>
       <c r="E75">
-        <v>29.2933808200575</v>
+        <v>28.29895403867275</v>
       </c>
       <c r="F75">
-        <v>29.17333147715025</v>
+        <v>29.14418133324224</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>29.11080858126019</v>
+        <v>28.67178342145451</v>
       </c>
       <c r="C76">
-        <v>28.19987344211298</v>
+        <v>29.06194539349588</v>
       </c>
       <c r="D76">
-        <v>29.01076818294509</v>
+        <v>29.18983265451172</v>
       </c>
       <c r="E76">
-        <v>29.2164393994426</v>
+        <v>28.20762811373044</v>
       </c>
       <c r="F76">
-        <v>29.09771719802249</v>
+        <v>29.06450477161927</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>29.03645575634542</v>
+        <v>28.58129511760414</v>
       </c>
       <c r="C77">
-        <v>28.10861584328968</v>
+        <v>28.98106278100762</v>
       </c>
       <c r="D77">
-        <v>28.93002225666739</v>
+        <v>29.1108131382892</v>
       </c>
       <c r="E77">
-        <v>29.13861308977863</v>
+        <v>28.11630291712124</v>
       </c>
       <c r="F77">
-        <v>29.02143119021512</v>
+        <v>28.9841984865568</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>28.96139613534348</v>
+        <v>28.49059732929028</v>
       </c>
       <c r="C78">
-        <v>28.01735915458788</v>
+        <v>28.89958074505786</v>
       </c>
       <c r="D78">
-        <v>28.84869043117721</v>
+        <v>29.03092389420419</v>
       </c>
       <c r="E78">
-        <v>29.05990429208831</v>
+        <v>28.02497846112199</v>
       </c>
       <c r="F78">
-        <v>28.94447666655073</v>
+        <v>28.90327084283106</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>28.88563069574077</v>
+        <v>28.39969943037305</v>
       </c>
       <c r="C79">
-        <v>27.92610337690144</v>
+        <v>28.81750444767331</v>
       </c>
       <c r="D79">
-        <v>28.76677968702505</v>
+        <v>28.95017043815044</v>
       </c>
       <c r="E79">
-        <v>28.98031681733946</v>
+        <v>27.93365475666535</v>
       </c>
       <c r="F79">
-        <v>28.86685715469915</v>
+        <v>28.82173024850903</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>28.80916087236578</v>
+        <v>28.30861040581631</v>
       </c>
       <c r="C80">
-        <v>27.83484851105539</v>
+        <v>28.73483921969808</v>
       </c>
       <c r="D80">
-        <v>28.68429710550771</v>
+        <v>28.86855916985935</v>
       </c>
       <c r="E80">
-        <v>28.89985585812774</v>
+        <v>27.84233181394503</v>
       </c>
       <c r="F80">
-        <v>28.78857648084765</v>
+        <v>28.7395851416385</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>28.73198854031222</v>
+        <v>28.21733887758086</v>
       </c>
       <c r="C81">
-        <v>27.74359455781286</v>
+        <v>28.65159058664143</v>
       </c>
       <c r="D81">
-        <v>28.6012498574274</v>
+        <v>28.78609728032308</v>
       </c>
       <c r="E81">
-        <v>28.81852794608457</v>
+        <v>27.75100964222925</v>
       </c>
       <c r="F81">
-        <v>28.70963875387266</v>
+        <v>28.65684403581243</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>28.65411599802201</v>
+        <v>28.12589311411887</v>
       </c>
       <c r="C82">
-        <v>27.6523415178811</v>
+        <v>28.56776427358441</v>
       </c>
       <c r="D82">
-        <v>28.51764519248147</v>
+        <v>28.70279263815996</v>
       </c>
       <c r="E82">
-        <v>28.73634089615076</v>
+        <v>27.65968825026188</v>
       </c>
       <c r="F82">
-        <v>28.63004834999263</v>
+        <v>28.57351542385893</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>28.57554595052865</v>
+        <v>28.03428105333854</v>
       </c>
       <c r="C83">
-        <v>27.56108939191693</v>
+        <v>28.48336616429869</v>
       </c>
       <c r="D83">
-        <v>28.43349042918299</v>
+        <v>28.61865379590889</v>
       </c>
       <c r="E83">
-        <v>28.65330373925297</v>
+        <v>27.56836764598865</v>
       </c>
       <c r="F83">
-        <v>28.5498098979303</v>
+        <v>28.4896078262506</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>28.49628149289203</v>
+        <v>27.94251031401345</v>
       </c>
       <c r="C84">
-        <v>27.46983818053154</v>
+        <v>28.3984022867667</v>
       </c>
       <c r="D84">
-        <v>28.34879294535995</v>
+        <v>28.53369008842978</v>
       </c>
       <c r="E84">
-        <v>28.56942664522216</v>
+        <v>27.47704783757129</v>
       </c>
       <c r="F84">
-        <v>28.46892826453854</v>
+        <v>28.40512979572657</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>28.41632609383178</v>
+        <v>27.85058821176308</v>
       </c>
       <c r="C85">
-        <v>27.37858788429483</v>
+        <v>28.3128788211066</v>
       </c>
       <c r="D85">
-        <v>28.26356016913865</v>
+        <v>28.4479114670515</v>
       </c>
       <c r="E85">
-        <v>28.4847208379792</v>
+        <v>27.38572883277384</v>
       </c>
       <c r="F85">
-        <v>28.38740854090411</v>
+        <v>28.32008984009347</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>28.33568357956933</v>
+        <v>27.75852177533081</v>
       </c>
       <c r="C86">
-        <v>27.28733850373919</v>
+        <v>28.22680212752836</v>
       </c>
       <c r="D86">
-        <v>28.17779957045281</v>
+        <v>28.36132841035303</v>
       </c>
       <c r="E86">
-        <v>28.39919850508451</v>
+        <v>27.2944106344559</v>
       </c>
       <c r="F86">
-        <v>28.30525602889851</v>
+        <v>28.23449648342473</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>28.25435811790827</v>
+        <v>27.66631775536232</v>
       </c>
       <c r="C87">
-        <v>27.196090039363</v>
+        <v>28.14017865106911</v>
       </c>
       <c r="D87">
-        <v>28.09151865300239</v>
+        <v>28.27395211880904</v>
       </c>
       <c r="E87">
-        <v>28.31287270372227</v>
+        <v>27.20309325069473</v>
       </c>
       <c r="F87">
-        <v>28.2224762281886</v>
+        <v>28.14835823418137</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>28.1723542025395</v>
+        <v>27.57398264289059</v>
       </c>
       <c r="C88">
-        <v>27.1048424916337</v>
+        <v>28.05301497044473</v>
       </c>
       <c r="D88">
-        <v>28.00472494667976</v>
+        <v>28.18579432732882</v>
       </c>
       <c r="E88">
-        <v>28.22575726507391</v>
+        <v>27.11177668803415</v>
       </c>
       <c r="F88">
-        <v>28.13907482369405</v>
+        <v>28.06168355394615</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>28.08967663761151</v>
+        <v>27.48152267577293</v>
       </c>
       <c r="C89">
-        <v>27.01359586099053</v>
+        <v>27.96531778380692</v>
       </c>
       <c r="D89">
-        <v>27.9174260004192</v>
+        <v>28.09686720447619</v>
       </c>
       <c r="E89">
-        <v>28.13786669885274</v>
+        <v>27.02046095334166</v>
       </c>
       <c r="F89">
-        <v>28.05505767347208</v>
+        <v>27.97448090453081</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>28.0063305225538</v>
+        <v>27.3889438547185</v>
       </c>
       <c r="C90">
-        <v>26.9223501478471</v>
+        <v>27.87709391991357</v>
       </c>
       <c r="D90">
-        <v>27.82962937546016</v>
+        <v>28.00718350576052</v>
       </c>
       <c r="E90">
-        <v>28.04921609954671</v>
+        <v>26.9291460537384</v>
       </c>
       <c r="F90">
-        <v>27.97043079703699</v>
+        <v>27.8867586895077</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>27.92232123717123</v>
+        <v>27.29625195137944</v>
       </c>
       <c r="C91">
-        <v>26.83110535259357</v>
+        <v>27.78835026628726</v>
       </c>
       <c r="D91">
-        <v>27.74134263900656</v>
+        <v>27.91675644173242</v>
       </c>
       <c r="E91">
-        <v>27.95982105566193</v>
+        <v>26.83783198360176</v>
       </c>
       <c r="F91">
-        <v>27.88520036406828</v>
+        <v>27.79852527298228</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>27.83765442702743</v>
+        <v>27.20345251926852</v>
       </c>
       <c r="C92">
-        <v>26.73986147559872</v>
+        <v>27.69909380958322</v>
       </c>
       <c r="D92">
-        <v>27.65257335825387</v>
+        <v>27.82559961205987</v>
       </c>
       <c r="E92">
-        <v>27.86969756300198</v>
+        <v>26.74651875382497</v>
       </c>
       <c r="F92">
-        <v>27.79937268355655</v>
+        <v>27.70978898994165</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>27.75233598910117</v>
+        <v>27.11055090536627</v>
       </c>
       <c r="C93">
-        <v>26.64861851721178</v>
+        <v>27.60933163709552</v>
       </c>
       <c r="D93">
-        <v>27.56332909478393</v>
+        <v>27.73372700906456</v>
       </c>
       <c r="E93">
-        <v>27.77886194276671</v>
+        <v>26.65520636980067</v>
       </c>
       <c r="F93">
-        <v>27.71295419332913</v>
+        <v>27.62055810369306</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>27.66637205775574</v>
+        <v>27.01755225601939</v>
       </c>
       <c r="C94">
-        <v>26.55737647776409</v>
+        <v>27.51907091100856</v>
       </c>
       <c r="D94">
-        <v>27.47361739928817</v>
+        <v>27.64115302516413</v>
       </c>
       <c r="E94">
-        <v>27.68733076501956</v>
+        <v>26.56389483732548</v>
       </c>
       <c r="F94">
-        <v>27.62595144996848</v>
+        <v>27.53084083220909</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>27.57976899099567</v>
+        <v>26.92446152993092</v>
       </c>
       <c r="C95">
-        <v>26.46613535757061</v>
+        <v>27.42831883753057</v>
       </c>
       <c r="D95">
-        <v>27.38344580663002</v>
+        <v>27.5478923597485</v>
       </c>
       <c r="E95">
-        <v>27.59512077786624</v>
+        <v>26.47258416256925</v>
       </c>
       <c r="F95">
-        <v>27.53837111910911</v>
+        <v>27.44064534110733</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>27.49253335703846</v>
+        <v>26.8312835026628</v>
       </c>
       <c r="C96">
-        <v>26.37489515693131</v>
+        <v>27.33708268845547</v>
       </c>
       <c r="D96">
-        <v>27.29282183120166</v>
+        <v>27.45395997984052</v>
       </c>
       <c r="E96">
-        <v>27.50224884250713</v>
+        <v>26.38127433757228</v>
       </c>
       <c r="F96">
-        <v>27.45021996609176</v>
+        <v>27.3499797186552</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>27.40467192120149</v>
+        <v>26.73802277622144</v>
       </c>
       <c r="C97">
-        <v>26.28365587613238</v>
+        <v>27.24536982528918</v>
       </c>
       <c r="D97">
-        <v>27.20175296259197</v>
+        <v>27.35937114672875</v>
       </c>
       <c r="E97">
-        <v>27.40873187417914</v>
+        <v>26.28996537257447</v>
       </c>
       <c r="F97">
-        <v>27.36150484699641</v>
+        <v>27.25885200327825</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>27.31619163309371</v>
+        <v>26.64468378672217</v>
       </c>
       <c r="C98">
-        <v>26.19241751544739</v>
+        <v>27.15318762106631</v>
       </c>
       <c r="D98">
-        <v>27.11024666151896</v>
+        <v>27.26414133710741</v>
       </c>
       <c r="E98">
-        <v>27.31458678888121</v>
+        <v>26.19865727138628</v>
       </c>
       <c r="F98">
-        <v>27.27223270001459</v>
+        <v>27.16727015894816</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>27.22709961414685</v>
+        <v>26.55127081732658</v>
       </c>
       <c r="C99">
-        <v>26.10118007513834</v>
+        <v>27.06054349080372</v>
       </c>
       <c r="D99">
-        <v>27.01831035604654</v>
+        <v>27.16828621956585</v>
       </c>
       <c r="E99">
-        <v>27.21983045568968</v>
+        <v>26.10735003790767</v>
       </c>
       <c r="F99">
-        <v>27.18241053716978</v>
+        <v>27.07524207359</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>27.1374031454482</v>
+        <v>26.45778798600973</v>
       </c>
       <c r="C100">
-        <v>26.00994355545658</v>
+        <v>26.96744488859256</v>
       </c>
       <c r="D100">
-        <v>26.92595143803945</v>
+        <v>27.07182162351663</v>
       </c>
       <c r="E100">
-        <v>27.12447965440127</v>
+        <v>26.01604367615741</v>
       </c>
       <c r="F100">
-        <v>27.09204543636195</v>
+        <v>26.98277557859389</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>27.0471096559172</v>
+        <v>26.36423928308588</v>
       </c>
       <c r="C101">
-        <v>25.91870795664368</v>
+        <v>26.87389932944169</v>
       </c>
       <c r="D101">
-        <v>26.83317725987679</v>
+        <v>26.97476351350366</v>
       </c>
       <c r="E101">
-        <v>27.02855103819765</v>
+        <v>25.92473818265423</v>
       </c>
       <c r="F101">
-        <v>27.00114453373998</v>
+        <v>26.8898784151022</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>26.95622671080126</v>
+        <v>26.27062855493158</v>
       </c>
       <c r="C102">
-        <v>25.82747327893224</v>
+        <v>26.77991430652401</v>
       </c>
       <c r="D102">
-        <v>26.73999513138087</v>
+        <v>26.8771279592044</v>
       </c>
       <c r="E102">
-        <v>26.93206110093886</v>
+        <v>25.83343356317732</v>
       </c>
       <c r="F102">
-        <v>26.9097150163938</v>
+        <v>26.79655825281607</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>26.86476200049511</v>
+        <v>26.17695950367504</v>
       </c>
       <c r="C103">
-        <v>25.73623952254659</v>
+        <v>26.685497340917</v>
       </c>
       <c r="D103">
-        <v>26.64641231697892</v>
+        <v>26.77893109069203</v>
       </c>
       <c r="E103">
-        <v>26.83502614887704</v>
+        <v>25.74212982000635</v>
       </c>
       <c r="F103">
-        <v>26.81776411534774</v>
+        <v>26.70282269031047</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>26.77272332970355</v>
+        <v>26.08323572457792</v>
       </c>
       <c r="C104">
-        <v>25.64500668770347</v>
+        <v>26.59065597860711</v>
       </c>
       <c r="D104">
-        <v>26.55243603306297</v>
+        <v>26.68018910232075</v>
       </c>
       <c r="E104">
-        <v>26.73746227626804</v>
+        <v>25.65082695527397</v>
       </c>
       <c r="F104">
-        <v>26.72529909885837</v>
+        <v>26.60867923603185</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>26.68011860691226</v>
+        <v>25.98946067476973</v>
       </c>
       <c r="C105">
-        <v>25.55377477461268</v>
+        <v>26.49539778159608</v>
       </c>
       <c r="D105">
-        <v>26.45807344555467</v>
+        <v>26.58091818418451</v>
       </c>
       <c r="E105">
-        <v>26.63938534462012</v>
+        <v>25.55952497097688</v>
       </c>
       <c r="F105">
-        <v>26.63232726598465</v>
+        <v>26.51413532438574</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>26.58695583420668</v>
+        <v>25.89563769927403</v>
       </c>
       <c r="C106">
-        <v>25.46254378347757</v>
+        <v>26.39973028394327</v>
       </c>
       <c r="D106">
-        <v>26.36333166765501</v>
+        <v>26.48113452933671</v>
       </c>
       <c r="E106">
-        <v>26.54081096523368</v>
+        <v>25.46822386848247</v>
       </c>
       <c r="F106">
-        <v>26.53885594045842</v>
+        <v>26.41919830796589</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>26.4932430974042</v>
+        <v>25.80177003764697</v>
       </c>
       <c r="C107">
-        <v>25.37131371449565</v>
+        <v>26.30366102311934</v>
       </c>
       <c r="D107">
-        <v>26.26821775777376</v>
+        <v>26.38085429367458</v>
       </c>
       <c r="E107">
-        <v>26.44175448469112</v>
+        <v>25.37692364962856</v>
       </c>
       <c r="F107">
-        <v>26.44489246481761</v>
+        <v>26.32387545084041</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>26.39898855651433</v>
+        <v>25.70786080914081</v>
       </c>
       <c r="C108">
-        <v>25.28008456785896</v>
+        <v>26.20719755608048</v>
       </c>
       <c r="D108">
-        <v>26.17273871763003</v>
+        <v>26.28009356313377</v>
       </c>
       <c r="E108">
-        <v>26.34223097300711</v>
+        <v>25.28562431590849</v>
       </c>
       <c r="F108">
-        <v>26.35044419480644</v>
+        <v>26.22817394218885</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>26.30420043652974</v>
+        <v>25.61391304185003</v>
       </c>
       <c r="C109">
-        <v>25.18885634375464</v>
+        <v>26.11034740651604</v>
       </c>
       <c r="D109">
-        <v>26.07690149051112</v>
+        <v>26.17886836371954</v>
       </c>
       <c r="E109">
-        <v>26.24225521415154</v>
+        <v>25.19432586868888</v>
       </c>
       <c r="F109">
-        <v>26.2555184940327</v>
+        <v>26.13210087986488</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>26.20888701852195</v>
+        <v>25.51992966094723</v>
       </c>
       <c r="C110">
-        <v>25.09762904236525</v>
+        <v>26.01311807360601</v>
       </c>
       <c r="D110">
-        <v>25.9807129596886</v>
+        <v>26.07719458840378</v>
       </c>
       <c r="E110">
-        <v>26.14184169868395</v>
+        <v>25.10302830922022</v>
       </c>
       <c r="F110">
-        <v>26.16012272886445</v>
+        <v>26.03566327768058</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>26.11305663107436</v>
+        <v>25.42591349435912</v>
       </c>
       <c r="C111">
-        <v>25.00640266386916</v>
+        <v>25.91551703907727</v>
       </c>
       <c r="D111">
-        <v>25.88417994697414</v>
+        <v>25.97508803056806</v>
       </c>
       <c r="E111">
-        <v>26.04100461825979</v>
+        <v>25.01173163973719</v>
       </c>
       <c r="F111">
-        <v>26.06426426358101</v>
+        <v>25.93886806999506</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>26.01671764201173</v>
+        <v>25.33186728587386</v>
       </c>
       <c r="C112">
-        <v>24.91517720844097</v>
+        <v>25.8175517941853</v>
       </c>
       <c r="D112">
-        <v>25.787309211419</v>
+        <v>25.87256432641974</v>
       </c>
       <c r="E112">
-        <v>25.9397578617895</v>
+        <v>24.92043586112988</v>
       </c>
       <c r="F112">
-        <v>25.96795045574889</v>
+        <v>25.84172209860566</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>25.91987845045196</v>
+        <v>25.23779368603393</v>
       </c>
       <c r="C113">
-        <v>24.82395267625175</v>
+        <v>25.71922975834017</v>
       </c>
       <c r="D113">
-        <v>25.69010744813718</v>
+        <v>25.76963894572635</v>
       </c>
       <c r="E113">
-        <v>25.83811501305075</v>
+        <v>24.82914097469772</v>
       </c>
       <c r="F113">
-        <v>25.87118865182729</v>
+        <v>25.74423212286274</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>25.82254747916363</v>
+        <v>25.14369526612904</v>
       </c>
       <c r="C114">
-        <v>24.73272906746941</v>
+        <v>25.62055832923037</v>
       </c>
       <c r="D114">
-        <v>25.59258128725902</v>
+        <v>25.66632720299976</v>
       </c>
       <c r="E114">
-        <v>25.73608934957646</v>
+        <v>24.73784698174326</v>
       </c>
       <c r="F114">
-        <v>25.77398618298696</v>
+        <v>25.64640481824021</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>25.72473316721706</v>
+        <v>25.04957451889187</v>
       </c>
       <c r="C115">
-        <v>24.64150638225896</v>
+        <v>25.52154487658726</v>
       </c>
       <c r="D115">
-        <v>25.49473729299462</v>
+        <v>25.56264418559858</v>
       </c>
       <c r="E115">
-        <v>25.63369384265398</v>
+        <v>24.6465538835729</v>
       </c>
       <c r="F115">
-        <v>25.67635036114134</v>
+        <v>25.5482467698908</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>25.6264439629505</v>
+        <v>24.95543385328963</v>
       </c>
       <c r="C116">
-        <v>24.55028462078277</v>
+        <v>25.42219674689164</v>
       </c>
       <c r="D116">
-        <v>25.3965819628149</v>
+        <v>25.45860481014265</v>
       </c>
       <c r="E116">
-        <v>25.53094115829114</v>
+        <v>24.5552616809575</v>
       </c>
       <c r="F116">
-        <v>25.57828847518608</v>
+        <v>25.44976448148751</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>25.52768831720953</v>
+        <v>24.86127561268804</v>
       </c>
       <c r="C117">
-        <v>24.45906378320081</v>
+        <v>25.32252121388714</v>
       </c>
       <c r="D117">
-        <v>25.29812172673046</v>
+        <v>25.35422374416303</v>
       </c>
       <c r="E117">
-        <v>25.42784365901911</v>
+        <v>24.46397037532205</v>
       </c>
       <c r="F117">
-        <v>25.47980778743171</v>
+        <v>25.35096436926028</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>25.42847467689303</v>
+        <v>24.76710206549168</v>
       </c>
       <c r="C118">
-        <v>24.36784386967091</v>
+        <v>25.22252551356234</v>
       </c>
       <c r="D118">
-        <v>25.199362946676</v>
+        <v>25.24951543217551</v>
       </c>
       <c r="E118">
-        <v>25.32441340641431</v>
+        <v>24.37267996789661</v>
       </c>
       <c r="F118">
-        <v>25.380915530231</v>
+        <v>25.25185276270961</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>25.32881147877302</v>
+        <v>24.67291541023765</v>
       </c>
       <c r="C119">
-        <v>24.27662488034897</v>
+        <v>25.12221685278003</v>
       </c>
       <c r="D119">
-        <v>25.10031191598202</v>
+        <v>25.14449409068006</v>
       </c>
       <c r="E119">
-        <v>25.22066216423848</v>
+        <v>24.28139045992406</v>
       </c>
       <c r="F119">
-        <v>25.28161890278018</v>
+        <v>25.15243591018329</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>25.22870714359105</v>
+        <v>24.57871778511052</v>
       </c>
       <c r="C120">
-        <v>24.18540681538913</v>
+        <v>25.02160237973775</v>
       </c>
       <c r="D120">
-        <v>25.00097485894021</v>
+        <v>25.03917365670737</v>
       </c>
       <c r="E120">
-        <v>25.11660140210248</v>
+        <v>24.19010185268274</v>
       </c>
       <c r="F120">
-        <v>25.1819250681087</v>
+        <v>25.0527199713467</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>25.1281700704376</v>
+        <v>24.48451125935817</v>
       </c>
       <c r="C121">
-        <v>24.09418967494399</v>
+        <v>24.92068917627372</v>
       </c>
       <c r="D121">
-        <v>24.90135793044815</v>
+        <v>24.93356784534252</v>
       </c>
       <c r="E121">
-        <v>25.01224229957282</v>
+        <v>24.09881414610049</v>
       </c>
       <c r="F121">
-        <v>25.081841150235</v>
+        <v>24.95271102277751</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>25.02720863138227</v>
+        <v>24.3902978459179</v>
       </c>
       <c r="C122">
-        <v>24.00297345916478</v>
+        <v>24.81948427146945</v>
       </c>
       <c r="D122">
-        <v>24.80146721573518</v>
+        <v>24.82769007146458</v>
       </c>
       <c r="E122">
-        <v>24.9075957506487</v>
+        <v>24.00752734170567</v>
       </c>
       <c r="F122">
-        <v>24.98137423148827</v>
+        <v>24.85241505891058</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>24.92583116638164</v>
+        <v>24.29607949914567</v>
       </c>
       <c r="C123">
-        <v>23.91175816820155</v>
+        <v>24.71799466783133</v>
       </c>
       <c r="D123">
-        <v>24.70130873016115</v>
+        <v>24.72155349622</v>
       </c>
       <c r="E123">
-        <v>24.80267236854517</v>
+        <v>23.91624144051642</v>
       </c>
       <c r="F123">
-        <v>24.88053134999033</v>
+        <v>24.75183798794384</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>24.8240459784297</v>
+        <v>24.20185811421328</v>
       </c>
       <c r="C124">
-        <v>23.82054380220328</v>
+        <v>24.61622727170645</v>
       </c>
       <c r="D124">
-        <v>24.60088841908521</v>
+        <v>24.61517100844693</v>
       </c>
       <c r="E124">
-        <v>24.69748249072659</v>
+        <v>23.82495644349617</v>
       </c>
       <c r="F124">
-        <v>24.77931949728426</v>
+        <v>24.65098563704881</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>24.72186132896216</v>
+        <v>24.10763553671327</v>
       </c>
       <c r="C125">
-        <v>23.72933036131808</v>
+        <v>24.51418893597122</v>
       </c>
       <c r="D125">
-        <v>24.50021215780101</v>
+        <v>24.50855519809555</v>
       </c>
       <c r="E125">
-        <v>24.59203618414005</v>
+        <v>23.73367235159717</v>
       </c>
       <c r="F125">
-        <v>24.6777456161197</v>
+        <v>24.54986375106196</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>24.61928543350708</v>
+        <v>24.01341355789315</v>
       </c>
       <c r="C126">
-        <v>23.6381178456933</v>
+        <v>24.41188645338331</v>
       </c>
       <c r="D126">
-        <v>24.39928575153284</v>
+        <v>24.40171840112614</v>
       </c>
       <c r="E126">
-        <v>24.48634325060527</v>
+        <v>23.64238916511265</v>
       </c>
       <c r="F126">
-        <v>24.57581659837476</v>
+        <v>24.44847799164484</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>24.51632645756174</v>
+        <v>23.91919391905426</v>
       </c>
       <c r="C127">
-        <v>23.54690625547568</v>
+        <v>24.30932656895611</v>
       </c>
       <c r="D127">
-        <v>24.29811493549446</v>
+        <v>24.2946726396626</v>
       </c>
       <c r="E127">
-        <v>24.38041323232257</v>
+        <v>23.55110688503785</v>
       </c>
       <c r="F127">
-        <v>24.4735392831168</v>
+        <v>24.34683394170583</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>24.41299251271447</v>
+        <v>23.82497831615726</v>
       </c>
       <c r="C128">
-        <v>23.45569559081145</v>
+        <v>24.20651593292548</v>
       </c>
       <c r="D128">
-        <v>24.19670537499225</v>
+        <v>24.18742966951163</v>
       </c>
       <c r="E128">
-        <v>24.27425541746517</v>
+        <v>23.45982551211136</v>
       </c>
       <c r="F128">
-        <v>24.37092045479221</v>
+        <v>24.24493710195721</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>24.30929165297582</v>
+        <v>23.73076839463352</v>
       </c>
       <c r="C129">
-        <v>23.3644858518465</v>
+        <v>24.10346113368056</v>
       </c>
       <c r="D129">
-        <v>24.09506266558156</v>
+        <v>24.08000095538759</v>
       </c>
       <c r="E129">
-        <v>24.16787884582673</v>
+        <v>23.36854504700476</v>
       </c>
       <c r="F129">
-        <v>24.26796684154235</v>
+        <v>24.14279289372337</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>24.20523187133873</v>
+        <v>23.63656575946364</v>
       </c>
       <c r="C130">
-        <v>23.27327703872646</v>
+        <v>24.00016870084418</v>
       </c>
       <c r="D130">
-        <v>23.99319233328097</v>
+        <v>23.97239766795143</v>
       </c>
       <c r="E130">
-        <v>24.06129231449833</v>
+        <v>23.27726549034633</v>
       </c>
       <c r="F130">
-        <v>24.16468511364403</v>
+        <v>24.04040666066977</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>24.10082109654664</v>
+        <v>23.54237197161591</v>
       </c>
       <c r="C131">
-        <v>23.1820691515968</v>
+        <v>23.89664509317047</v>
       </c>
       <c r="D131">
-        <v>23.89109983483144</v>
+        <v>23.86463071134008</v>
       </c>
       <c r="E131">
-        <v>23.95450438355255</v>
+        <v>23.18598684293124</v>
       </c>
       <c r="F131">
-        <v>24.06108188206371</v>
+        <v>23.93778366672406</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>23.99606719006253</v>
+        <v>23.44818854879724</v>
       </c>
       <c r="C132">
-        <v>23.09086219060294</v>
+        <v>23.79289668209305</v>
       </c>
       <c r="D132">
-        <v>23.7887905579907</v>
+        <v>23.75671068492041</v>
       </c>
       <c r="E132">
-        <v>23.8475233817156</v>
+        <v>23.09470910528601</v>
       </c>
       <c r="F132">
-        <v>23.95716369712613</v>
+        <v>23.83492909962963</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>23.89097794324739</v>
+        <v>23.3540169720526</v>
       </c>
       <c r="C133">
-        <v>22.99965615589039</v>
+        <v>23.68892976892809</v>
       </c>
       <c r="D133">
-        <v>23.68626982186446</v>
+        <v>23.64864792550697</v>
       </c>
       <c r="E133">
-        <v>23.74035741201072</v>
+        <v>23.00343227797037</v>
       </c>
       <c r="F133">
-        <v>23.85293704728462</v>
+        <v>23.73184807097029</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>23.7855610747183</v>
+        <v>23.25985868191918</v>
       </c>
       <c r="C134">
-        <v>22.90845104760479</v>
+        <v>23.58475060018746</v>
       </c>
       <c r="D134">
-        <v>23.58354287727742</v>
+        <v>23.54045248072382</v>
       </c>
       <c r="E134">
-        <v>23.63301435735849</v>
+        <v>22.91215636152341</v>
       </c>
       <c r="F134">
-        <v>23.74840835800012</v>
+        <v>23.62854561467259</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>23.67982422790536</v>
+        <v>23.16571508247172</v>
       </c>
       <c r="C135">
-        <v>22.81724686589203</v>
+        <v>23.48036532769171</v>
       </c>
       <c r="D135">
-        <v>23.4806149071805</v>
+        <v>23.43213412332647</v>
       </c>
       <c r="E135">
-        <v>23.52550188612186</v>
+        <v>22.82088135645482</v>
       </c>
       <c r="F135">
-        <v>23.64358399071646</v>
+        <v>23.52502668956943</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>23.57377496878171</v>
+        <v>23.07158754350166</v>
       </c>
       <c r="C136">
-        <v>22.72604361089833</v>
+        <v>23.37578002754872</v>
       </c>
       <c r="D136">
-        <v>23.37749102709125</v>
+        <v>23.32370236358178</v>
       </c>
       <c r="E136">
-        <v>23.41782745758545</v>
+        <v>22.72960726352362</v>
       </c>
       <c r="F136">
-        <v>23.5384702419302</v>
+        <v>23.42129618208281</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>23.46742078376857</v>
+        <v>22.97747739793851</v>
       </c>
       <c r="C137">
-        <v>22.63484128277031</v>
+        <v>23.27100070134359</v>
       </c>
       <c r="D137">
-        <v>23.27417628556136</v>
+        <v>23.21516643021767</v>
       </c>
       <c r="E137">
-        <v>23.30999832735904</v>
+        <v>22.63833408317027</v>
       </c>
       <c r="F137">
-        <v>23.43307334235188</v>
+        <v>23.31735890690702</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>23.36076907781372</v>
+        <v>22.88338594815561</v>
       </c>
       <c r="C138">
-        <v>22.54363988165511</v>
+        <v>23.16603328951966</v>
       </c>
       <c r="D138">
-        <v>23.17067566467151</v>
+        <v>23.10653530357213</v>
       </c>
       <c r="E138">
-        <v>23.20202155270259</v>
+        <v>22.54706181590434</v>
       </c>
       <c r="F138">
-        <v>23.32739945614974</v>
+        <v>23.2132196011128</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>23.25382717262332</v>
+        <v>22.78931446372573</v>
       </c>
       <c r="C139">
-        <v>22.45243940770044</v>
+        <v>23.06088363213494</v>
       </c>
       <c r="D139">
-        <v>23.06699408055222</v>
+        <v>22.99781769265865</v>
       </c>
       <c r="E139">
-        <v>23.09390399776201</v>
+        <v>22.45579046224412</v>
       </c>
       <c r="F139">
-        <v>23.22145468028168</v>
+        <v>23.10888293119436</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>23.14660230506019</v>
+        <v>22.69526418248797</v>
       </c>
       <c r="C140">
-        <v>22.36123986105464</v>
+        <v>22.95555749629271</v>
       </c>
       <c r="D140">
-        <v>22.96313638392897</v>
+        <v>22.88902205745978</v>
       </c>
       <c r="E140">
-        <v>22.98565233870733</v>
+        <v>22.36452002270402</v>
       </c>
       <c r="F140">
-        <v>23.11524504390318</v>
+        <v>23.00435349486744</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>23.03910162568427</v>
+        <v>22.60123631451072</v>
       </c>
       <c r="C141">
-        <v>22.2700412418668</v>
+        <v>22.85006057608606</v>
       </c>
       <c r="D141">
-        <v>22.85910736068908</v>
+        <v>22.78015661157422</v>
       </c>
       <c r="E141">
-        <v>22.87727306877752</v>
+        <v>22.27325049772583</v>
       </c>
       <c r="F141">
-        <v>23.00877650785203</v>
+        <v>22.8996358237911</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>22.93133219744246</v>
+        <v>22.50723203953619</v>
       </c>
       <c r="C142">
-        <v>22.17884355028677</v>
+        <v>22.74439849101523</v>
       </c>
       <c r="D142">
-        <v>22.75491173246844</v>
+        <v>22.67122931815051</v>
       </c>
       <c r="E142">
-        <v>22.76877250322597</v>
+        <v>22.18198188782538</v>
       </c>
       <c r="F142">
-        <v>22.90205496420408</v>
+        <v>22.79473437283915</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>22.82330099449801</v>
+        <v>22.41325251048372</v>
       </c>
       <c r="C143">
-        <v>22.08764678646531</v>
+        <v>22.6385767677485</v>
       </c>
       <c r="D143">
-        <v>22.65055415725658</v>
+        <v>22.56224790970856</v>
       </c>
       <c r="E143">
-        <v>22.66015678416231</v>
+        <v>22.09071419349911</v>
       </c>
       <c r="F143">
-        <v>22.7950862358975</v>
+        <v>22.68965353115466</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>22.71501490118868</v>
+        <v>22.3192988541665</v>
       </c>
       <c r="C144">
-        <v>21.99645095055405</v>
+        <v>22.53260085666286</v>
       </c>
       <c r="D144">
-        <v>22.54603923001889</v>
+        <v>22.45321987894681</v>
       </c>
       <c r="E144">
-        <v>22.55143188528656</v>
+        <v>21.99944741523975</v>
       </c>
       <c r="F144">
-        <v>22.68787607642476</v>
+        <v>22.5843976215604</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>22.60648071112102</v>
+        <v>22.22537217002564</v>
       </c>
       <c r="C145">
-        <v>21.90525604270567</v>
+        <v>22.42647613969072</v>
       </c>
       <c r="D145">
-        <v>22.44137148333437</v>
+        <v>22.34415249470778</v>
       </c>
       <c r="E145">
-        <v>22.44260361652273</v>
+        <v>21.9081815535429</v>
       </c>
       <c r="F145">
-        <v>22.58043016958551</v>
+        <v>22.47897090391422</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>22.49770512637848</v>
+        <v>22.13147353446631</v>
       </c>
       <c r="C146">
-        <v>21.81406206307388</v>
+        <v>22.3202079108517</v>
       </c>
       <c r="D146">
-        <v>22.33655538804748</v>
+        <v>22.23505280417194</v>
       </c>
       <c r="E146">
-        <v>22.3336776285405</v>
+        <v>21.81691660868698</v>
       </c>
       <c r="F146">
-        <v>22.47275412930042</v>
+        <v>22.3733775671637</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>22.38869475685486</v>
+        <v>22.03760399914968</v>
       </c>
       <c r="C147">
-        <v>21.72286901181353</v>
+        <v>22.21380138123406</v>
       </c>
       <c r="D147">
-        <v>22.23159535393282</v>
+        <v>22.12592763638396</v>
       </c>
       <c r="E147">
-        <v>22.22465941717574</v>
+        <v>21.72565258118056</v>
       </c>
       <c r="F147">
-        <v>22.36485349947905</v>
+        <v>22.2676217375365</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>22.27945611969653</v>
+        <v>21.94376459215287</v>
       </c>
       <c r="C148">
-        <v>21.63167688908062</v>
+        <v>22.10726168383846</v>
       </c>
       <c r="D148">
-        <v>22.12649573037114</v>
+        <v>22.01678361306763</v>
       </c>
       <c r="E148">
-        <v>22.11555432773801</v>
+        <v>21.63438947147521</v>
       </c>
       <c r="F148">
-        <v>22.2567337539443</v>
+        <v>22.16170747762606</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>22.16999563885125</v>
+        <v>21.84995632042397</v>
       </c>
       <c r="C149">
-        <v>21.54048569503244</v>
+        <v>22.00059388516952</v>
       </c>
       <c r="D149">
-        <v>22.02126080703607</v>
+        <v>21.90762714887133</v>
       </c>
       <c r="E149">
-        <v>22.00636755921878</v>
+        <v>21.54312728000109</v>
       </c>
       <c r="F149">
-        <v>22.14840029640724</v>
+        <v>22.05563878790445</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>22.06031964472415</v>
+        <v>21.75618016690345</v>
       </c>
       <c r="C150">
-        <v>21.44929542982755</v>
+        <v>21.8938029564185</v>
       </c>
       <c r="D150">
-        <v>21.91589481459014</v>
+        <v>21.79846446114764</v>
       </c>
       <c r="E150">
-        <v>21.89710416838757</v>
+        <v>21.4518660071837</v>
       </c>
       <c r="F150">
-        <v>22.0398584604905</v>
+        <v>21.94941960585573</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>21.95043437392532</v>
+        <v>21.66243709577435</v>
       </c>
       <c r="C151">
-        <v>21.35810609362589</v>
+        <v>21.78689379382955</v>
       </c>
       <c r="D151">
-        <v>21.81040192538895</v>
+        <v>21.68930157393062</v>
       </c>
       <c r="E151">
-        <v>21.78776907378903</v>
+        <v>21.36060565334697</v>
       </c>
       <c r="F151">
-        <v>21.93111350979847</v>
+        <v>21.84305380823497</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>21.84034596911682</v>
+        <v>21.56872805167761</v>
       </c>
       <c r="C152">
-        <v>21.26691768658879</v>
+        <v>21.67987121749348</v>
       </c>
       <c r="D152">
-        <v>21.70478625419272</v>
+        <v>21.58014432370925</v>
       </c>
       <c r="E152">
-        <v>21.67836705963306</v>
+        <v>21.26934621890752</v>
       </c>
       <c r="F152">
-        <v>21.822170638029</v>
+        <v>21.73654521143628</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>21.73006047894428</v>
+        <v>21.47505396058713</v>
       </c>
       <c r="C153">
-        <v>21.17573020887911</v>
+        <v>21.57273997459595</v>
       </c>
       <c r="D153">
-        <v>21.5990518588841</v>
+        <v>21.47099836549339</v>
       </c>
       <c r="E153">
-        <v>21.56890277958482</v>
+        <v>21.17808770425284</v>
       </c>
       <c r="F153">
-        <v>21.71303496912958</v>
+        <v>21.62989757127162</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>21.61958385805401</v>
+        <v>21.38141572297159</v>
       </c>
       <c r="C154">
-        <v>21.08454366066119</v>
+        <v>21.46550472403828</v>
       </c>
       <c r="D154">
-        <v>21.4932027411917</v>
+        <v>21.36186917844947</v>
       </c>
       <c r="E154">
-        <v>21.45938076045432</v>
+        <v>21.08683010975314</v>
       </c>
       <c r="F154">
-        <v>21.60371155749093</v>
+        <v>21.52311458642003</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>21.5089219671919</v>
+        <v>21.28781422848367</v>
       </c>
       <c r="C155">
-        <v>20.99335804210099</v>
+        <v>21.35817004976298</v>
       </c>
       <c r="D155">
-        <v>21.38724284741816</v>
+        <v>21.25276207034432</v>
       </c>
       <c r="E155">
-        <v>21.3498054057857</v>
+        <v>20.99557343576942</v>
       </c>
       <c r="F155">
-        <v>21.49420538817844</v>
+        <v>21.41619989733128</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>21.39808057337853</v>
+        <v>21.19425034939242</v>
       </c>
       <c r="C156">
-        <v>20.90217335336612</v>
+        <v>21.25074046425274</v>
       </c>
       <c r="D156">
-        <v>21.28117606917226</v>
+        <v>21.14368218473629</v>
       </c>
       <c r="E156">
-        <v>21.24018099935243</v>
+        <v>20.90431768269238</v>
       </c>
       <c r="F156">
-        <v>21.38452137719806</v>
+        <v>21.30915708750859</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>21.2870653501537</v>
+        <v>21.10072494168268</v>
       </c>
       <c r="C157">
-        <v>20.81098959462585</v>
+        <v>21.14322040114756</v>
       </c>
       <c r="D157">
-        <v>21.17500624410415</v>
+        <v>21.03463450502129</v>
       </c>
       <c r="E157">
-        <v>21.13051170855337</v>
+        <v>20.81306285086621</v>
       </c>
       <c r="F157">
-        <v>21.27466437179495</v>
+        <v>21.20198968279805</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>21.17588187787854</v>
+        <v>21.00723883480175</v>
       </c>
       <c r="C158">
-        <v>20.71980676605126</v>
+        <v>21.03561421397906</v>
       </c>
       <c r="D158">
-        <v>21.06873715664328</v>
+        <v>20.92562385936189</v>
       </c>
       <c r="E158">
-        <v>21.02080158772034</v>
+        <v>20.72180894063567</v>
       </c>
       <c r="F158">
-        <v>21.1646391507843</v>
+        <v>21.09470115558263</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>21.06453564411688</v>
+        <v>20.91379285291379</v>
       </c>
       <c r="C159">
-        <v>20.62862486781522</v>
+        <v>20.92792618176149</v>
       </c>
       <c r="D159">
-        <v>20.96237253873807</v>
+        <v>20.81665492812434</v>
       </c>
       <c r="E159">
-        <v>20.91105458132909</v>
+        <v>20.63055595234299</v>
       </c>
       <c r="F159">
-        <v>21.0544504249107</v>
+        <v>20.98729492316456</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>20.95303204408174</v>
+        <v>20.82038780447662</v>
       </c>
       <c r="C160">
-        <v>20.53744390009245</v>
+        <v>20.82016051704009</v>
       </c>
       <c r="D160">
-        <v>20.85591607059706</v>
+        <v>20.70773224483946</v>
       </c>
       <c r="E160">
-        <v>20.80127452712659</v>
+        <v>20.53930388632468</v>
       </c>
       <c r="F160">
-        <v>20.94410283723553</v>
+        <v>20.8797743492302</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>20.84137638113215</v>
+        <v>20.72702448320079</v>
       </c>
       <c r="C161">
-        <v>20.44626386305961</v>
+        <v>20.71232134844902</v>
       </c>
       <c r="D161">
-        <v>20.74937138143078</v>
+        <v>20.59886020610316</v>
       </c>
       <c r="E161">
-        <v>20.69146515916526</v>
+        <v>20.44805274295474</v>
       </c>
       <c r="F161">
-        <v>20.83360096354908</v>
+        <v>20.77214274340315</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>20.72957386731735</v>
+        <v>20.63370365976334</v>
       </c>
       <c r="C162">
-        <v>20.35508475689535</v>
+        <v>20.60441273324435</v>
       </c>
       <c r="D162">
-        <v>20.64274205019386</v>
+        <v>20.49004307251152</v>
       </c>
       <c r="E162">
-        <v>20.58163011075764</v>
+        <v>20.35680252256169</v>
       </c>
       <c r="F162">
-        <v>20.72294931280956</v>
+        <v>20.66440336463084</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>20.61762962397149</v>
+        <v>20.54042609973302</v>
       </c>
       <c r="C163">
-        <v>20.26390658178032</v>
+        <v>20.49643865664489</v>
       </c>
       <c r="D163">
-        <v>20.536031606327</v>
+        <v>20.38128497443511</v>
       </c>
       <c r="E163">
-        <v>20.47177291734287</v>
+        <v>20.26555322547867</v>
       </c>
       <c r="F163">
-        <v>20.61215232760221</v>
+        <v>20.55655942019277</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>20.50554868235916</v>
+        <v>20.44719255486976</v>
       </c>
       <c r="C164">
-        <v>20.17272933789728</v>
+        <v>20.38840303602824</v>
       </c>
       <c r="D164">
-        <v>20.42924353049825</v>
+        <v>20.27258991866179</v>
       </c>
       <c r="E164">
-        <v>20.36189701927563</v>
+        <v>20.17430485204194</v>
       </c>
       <c r="F164">
-        <v>20.50121438461742</v>
+        <v>20.44861406697351</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>20.39333598436696</v>
+        <v>20.35400376375361</v>
       </c>
       <c r="C165">
-        <v>20.08155302543114</v>
+        <v>20.28030971058692</v>
       </c>
       <c r="D165">
-        <v>20.3223812553432</v>
+        <v>20.16396178825846</v>
       </c>
       <c r="E165">
-        <v>20.25200576453414</v>
+        <v>20.08305740258713</v>
       </c>
       <c r="F165">
-        <v>20.39013979515214</v>
+        <v>20.34057041046426</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>20.28099638323538</v>
+        <v>20.26086044759327</v>
       </c>
       <c r="C166">
-        <v>19.990377644569</v>
+        <v>20.17216245048547</v>
       </c>
       <c r="D166">
-        <v>20.21544816620379</v>
+        <v>20.05540435292046</v>
       </c>
       <c r="E166">
-        <v>20.14210241135137</v>
+        <v>19.99181087743398</v>
       </c>
       <c r="F166">
-        <v>20.2789328056191</v>
+        <v>20.23243150894481</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>20.16853464432705</v>
+        <v>20.16776332045229</v>
       </c>
       <c r="C167">
-        <v>19.89920319550022</v>
+        <v>20.06396495826357</v>
       </c>
       <c r="D167">
-        <v>20.10844760186526</v>
+        <v>19.94692126566353</v>
       </c>
       <c r="E167">
-        <v>20.03219013077224</v>
+        <v>19.90056527691731</v>
       </c>
       <c r="F167">
-        <v>20.16759759810326</v>
+        <v>20.12420037222467</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>20.05595544592997</v>
+        <v>20.07471308463412</v>
       </c>
       <c r="C168">
-        <v>19.80802967841647</v>
+        <v>19.95572086745515</v>
       </c>
       <c r="D168">
-        <v>20.00138285529104</v>
+        <v>19.83851607334029</v>
       </c>
       <c r="E168">
-        <v>19.92227200913573</v>
+        <v>19.80932060137001</v>
       </c>
       <c r="F168">
-        <v>20.05613829090455</v>
+        <v>20.0158799627017</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>19.94326338009272</v>
+        <v>19.98171043111501</v>
       </c>
       <c r="C169">
-        <v>19.71685709351182</v>
+        <v>19.84743374004191</v>
       </c>
       <c r="D169">
-        <v>19.89425717435517</v>
+        <v>19.73019222228455</v>
       </c>
       <c r="E169">
-        <v>19.81235105048873</v>
+        <v>19.71807685112364</v>
       </c>
       <c r="F169">
-        <v>19.94455893910206</v>
+        <v>19.90747319387875</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>19.83046295349322</v>
+        <v>19.88875603731099</v>
       </c>
       <c r="C170">
-        <v>19.62568544098274</v>
+        <v>19.73910707123898</v>
       </c>
       <c r="D170">
-        <v>19.78707376257207</v>
+        <v>19.62195305985053</v>
       </c>
       <c r="E170">
-        <v>19.70243017892746</v>
+        <v>19.62683402651074</v>
       </c>
       <c r="F170">
-        <v>19.83286353513423</v>
+        <v>19.79898293515283</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>19.71755858833307</v>
+        <v>19.79585057308552</v>
       </c>
       <c r="C171">
-        <v>19.5345147210282</v>
+        <v>19.63074429307902</v>
       </c>
       <c r="D171">
-        <v>19.67983577982335</v>
+        <v>19.51380181753965</v>
       </c>
       <c r="E171">
-        <v>19.59251224087537</v>
+        <v>19.53559212782726</v>
       </c>
       <c r="F171">
-        <v>19.72105600938552</v>
+        <v>19.69041201068679</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>19.60455462325739</v>
+        <v>19.70299469833247</v>
       </c>
       <c r="C172">
-        <v>19.44334493384973</v>
+        <v>19.52234876827342</v>
       </c>
       <c r="D172">
-        <v>19.57254634308151</v>
+        <v>19.40574165936306</v>
       </c>
       <c r="E172">
-        <v>19.48260000729172</v>
+        <v>19.44435115540497</v>
       </c>
       <c r="F172">
-        <v>19.60914023079511</v>
+        <v>19.58176319993436</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>19.49145531429771</v>
+        <v>19.61018906333487</v>
       </c>
       <c r="C173">
-        <v>19.35217607965147</v>
+        <v>19.41392379455162</v>
       </c>
       <c r="D173">
-        <v>19.46520852713017</v>
+        <v>19.29777565602415</v>
       </c>
       <c r="E173">
-        <v>19.3726961758209</v>
+        <v>19.3531111095718</v>
       </c>
       <c r="F173">
-        <v>19.49712000746937</v>
+        <v>19.47303923632201</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>19.37826483583599</v>
+        <v>19.517434306392</v>
       </c>
       <c r="C174">
-        <v>19.26100815864024</v>
+        <v>19.3054726058617</v>
       </c>
       <c r="D174">
-        <v>19.3578253652809</v>
+        <v>19.1899067869847</v>
       </c>
       <c r="E174">
-        <v>19.262803372876</v>
+        <v>19.26187199065086</v>
       </c>
       <c r="F174">
-        <v>19.38499908730332</v>
+        <v>19.36424281149998</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>19.26498728158768</v>
+        <v>19.42473105955471</v>
       </c>
       <c r="C175">
-        <v>19.16984117102557</v>
+        <v>19.19699837535766</v>
       </c>
       <c r="D175">
-        <v>19.25039985008625</v>
+        <v>19.08213793244891</v>
       </c>
       <c r="E175">
-        <v>19.15292415566608</v>
+        <v>19.17063379896529</v>
       </c>
       <c r="F175">
-        <v>19.2727811586117</v>
+        <v>19.25537657513213</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>19.15162666560171</v>
+        <v>19.33207994633231</v>
       </c>
       <c r="C176">
-        <v>19.0786751170198</v>
+        <v>19.08850421035596</v>
       </c>
       <c r="D176">
-        <v>19.14293493404892</v>
+        <v>18.97447192391136</v>
       </c>
       <c r="E176">
-        <v>19.0430610141626</v>
+        <v>19.07939653482294</v>
       </c>
       <c r="F176">
-        <v>19.16046985076471</v>
+        <v>19.14644313470515</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>19.03818692327562</v>
+        <v>19.23948158195578</v>
       </c>
       <c r="C177">
-        <v>18.98750999683816</v>
+        <v>18.97999315750641</v>
       </c>
       <c r="D177">
-        <v>19.03543353032708</v>
+        <v>18.86691150971855</v>
       </c>
       <c r="E177">
-        <v>18.93321637301099</v>
+        <v>18.98816019854566</v>
       </c>
       <c r="F177">
-        <v>19.04806873483464</v>
+        <v>19.03744505472083</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>18.92467191238386</v>
+        <v>19.14693657057803</v>
       </c>
       <c r="C178">
-        <v>18.89634581069877</v>
+        <v>18.87146820348567</v>
       </c>
       <c r="D178">
-        <v>18.92789851343546</v>
+        <v>18.75945934890185</v>
       </c>
       <c r="E178">
-        <v>18.82339259338704</v>
+        <v>18.89692479045393</v>
       </c>
       <c r="F178">
-        <v>18.93558132424572</v>
+        <v>18.92838485987373</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>18.81108541411765</v>
+        <v>19.05444551156937</v>
       </c>
       <c r="C179">
-        <v>18.80518255882276</v>
+        <v>18.7629322757904</v>
       </c>
       <c r="D179">
-        <v>18.82033271994239</v>
+        <v>18.65211803456463</v>
       </c>
       <c r="E179">
-        <v>18.7135919747996</v>
+        <v>18.80569031086583</v>
       </c>
       <c r="F179">
-        <v>18.82301107542918</v>
+        <v>18.81926503591126</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>18.69743113413501</v>
+        <v>18.96200899692366</v>
       </c>
       <c r="C180">
-        <v>18.71402024143434</v>
+        <v>18.65438824142653</v>
       </c>
       <c r="D180">
-        <v>18.71273894916255</v>
+        <v>18.5448901066972</v>
       </c>
       <c r="E180">
-        <v>18.60381675684298</v>
+        <v>18.71445676009924</v>
       </c>
       <c r="F180">
-        <v>18.71036138848307</v>
+        <v>18.71008802886299</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>18.58371270361901</v>
+        <v>18.86962761139298</v>
       </c>
       <c r="C181">
-        <v>18.62285885876083</v>
+        <v>18.54583890987698</v>
       </c>
       <c r="D181">
-        <v>18.60511996384545</v>
+        <v>18.43777803667513</v>
       </c>
       <c r="E181">
-        <v>18.49406912089751</v>
+        <v>18.62322413847845</v>
       </c>
       <c r="F181">
-        <v>18.59763560783453</v>
+        <v>18.60085624466224</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>18.46993368034308</v>
+        <v>18.77730193018266</v>
       </c>
       <c r="C182">
-        <v>18.53169841103276</v>
+        <v>18.43728703453364</v>
       </c>
       <c r="D182">
-        <v>18.49747849085955</v>
+        <v>18.33078421288109</v>
       </c>
       <c r="E182">
-        <v>18.38435119178384</v>
+        <v>18.5319924463223</v>
       </c>
       <c r="F182">
-        <v>18.48483702290674</v>
+        <v>18.49157205135463</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>18.35609754974178</v>
+        <v>18.68503252432801</v>
       </c>
       <c r="C183">
-        <v>18.44053889848393</v>
+        <v>18.32873531194355</v>
       </c>
       <c r="D183">
-        <v>18.38981722187199</v>
+        <v>18.22391098706074</v>
       </c>
       <c r="E183">
-        <v>18.27466503936768</v>
+        <v>18.4407616839504</v>
       </c>
       <c r="F183">
-        <v>18.37196886878714</v>
+        <v>18.38223778086222</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>18.24220772598585</v>
+        <v>18.5928199585411</v>
       </c>
       <c r="C184">
-        <v>18.34938032135148</v>
+        <v>18.22018638312542</v>
       </c>
       <c r="D184">
-        <v>18.28213881402399</v>
+        <v>18.11716064982269</v>
       </c>
       <c r="E184">
-        <v>18.16501268012165</v>
+        <v>18.34953185168414</v>
       </c>
       <c r="F184">
-        <v>18.25903432689724</v>
+        <v>18.27285572774626</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>18.12826755306021</v>
+        <v>18.50066479127862</v>
       </c>
       <c r="C185">
-        <v>18.25822267987599</v>
+        <v>18.11164283494533</v>
       </c>
       <c r="D185">
-        <v>18.17444589060183</v>
+        <v>18.01053543520119</v>
       </c>
       <c r="E185">
-        <v>18.05539607864005</v>
+        <v>18.25830294984585</v>
       </c>
       <c r="F185">
-        <v>18.14603652566394</v>
+        <v>18.16342814912162</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>18.01428030584358</v>
+        <v>18.40856757326605</v>
       </c>
       <c r="C186">
-        <v>18.16706597430153</v>
+        <v>18.0031072021399</v>
       </c>
       <c r="D186">
-        <v>18.06674104170343</v>
+        <v>17.90403751420383</v>
       </c>
       <c r="E186">
-        <v>17.94581714911367</v>
+        <v>18.16707497876542</v>
       </c>
       <c r="F186">
-        <v>18.03297854119115</v>
+        <v>18.05395726607147</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>17.90024919118908</v>
+        <v>18.31652885128237</v>
       </c>
       <c r="C187">
-        <v>18.07591020487572</v>
+        <v>17.89458196512614</v>
       </c>
       <c r="D187">
-        <v>17.95902682490066</v>
+        <v>17.79766902418246</v>
       </c>
       <c r="E187">
-        <v>17.83627775676043</v>
+        <v>18.07584793876877</v>
       </c>
       <c r="F187">
-        <v>17.91986339793204</v>
+        <v>17.9444452662502</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>17.78617734900405</v>
+        <v>18.22454916676868</v>
       </c>
       <c r="C188">
-        <v>17.98475537184987</v>
+        <v>17.78606955316779</v>
       </c>
       <c r="D188">
-        <v>17.85130576589717</v>
+        <v>17.69143205096525</v>
       </c>
       <c r="E188">
-        <v>17.72677971921783</v>
+        <v>17.98462183018371</v>
       </c>
       <c r="F188">
-        <v>17.80669406936041</v>
+        <v>17.83489430215218</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>17.67206785332861</v>
+        <v>18.13262905589911</v>
       </c>
       <c r="C189">
-        <v>17.893601475479</v>
+        <v>17.67757234467714</v>
       </c>
       <c r="D189">
-        <v>17.74358035918211</v>
+        <v>17.5853286287431</v>
       </c>
       <c r="E189">
-        <v>17.61732480789508</v>
+        <v>17.8933966533412</v>
       </c>
       <c r="F189">
-        <v>17.69347347864137</v>
+        <v>17.72530649130449</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>17.55792371341184</v>
+        <v>18.04076904854938</v>
       </c>
       <c r="C190">
-        <v>17.80244851602196</v>
+        <v>17.56909266809437</v>
       </c>
       <c r="D190">
-        <v>17.63585306867952</v>
+        <v>17.47936074670241</v>
       </c>
       <c r="E190">
-        <v>17.50791474928802</v>
+        <v>17.80217240857457</v>
       </c>
       <c r="F190">
-        <v>17.58020449930072</v>
+        <v>17.61568391694185</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>17.44374787478463</v>
+        <v>17.94896967109555</v>
       </c>
       <c r="C191">
-        <v>17.71129649374149</v>
+        <v>17.46063280277255</v>
       </c>
       <c r="D191">
-        <v>17.52812632839355</v>
+        <v>17.37353036238873</v>
       </c>
       <c r="E191">
-        <v>17.39855122625755</v>
+        <v>17.71094909621668</v>
       </c>
       <c r="F191">
-        <v>17.46688995589281</v>
+        <v>17.50602863141689</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>17.32954322032849</v>
+        <v>17.85723144548313</v>
       </c>
       <c r="C192">
-        <v>17.62014540890433</v>
+        <v>17.35219498306904</v>
       </c>
       <c r="D192">
-        <v>17.42040254304969</v>
+        <v>17.26783939154114</v>
       </c>
       <c r="E192">
-        <v>17.28923587927189</v>
+        <v>17.61972671660554</v>
       </c>
       <c r="F192">
-        <v>17.35353262466655</v>
+        <v>17.3963426539766</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>17.21531257133947</v>
+        <v>17.76555488930157</v>
       </c>
       <c r="C193">
-        <v>17.52899526178128</v>
+        <v>17.2437813918463</v>
       </c>
       <c r="D193">
-        <v>17.31268408873189</v>
+        <v>17.16228969921378</v>
       </c>
       <c r="E193">
-        <v>17.17997030761572</v>
+        <v>17.52850527008202</v>
       </c>
       <c r="F193">
-        <v>17.24013523422827</v>
+        <v>17.28662797125418</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>17.10105868858638</v>
+        <v>17.67394051482085</v>
       </c>
       <c r="C194">
-        <v>17.43784605264733</v>
+        <v>17.13539416719208</v>
       </c>
       <c r="D194">
-        <v>17.20497331351583</v>
+        <v>17.05688312583794</v>
       </c>
       <c r="E194">
-        <v>17.07075607056448</v>
+        <v>17.4372847569894</v>
       </c>
       <c r="F194">
-        <v>17.12670046620248</v>
+        <v>17.17688653725553</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>16.98678427336282</v>
+        <v>17.58238883150645</v>
       </c>
       <c r="C195">
-        <v>17.34669778178171</v>
+        <v>17.02703540173164</v>
       </c>
       <c r="D195">
-        <v>17.09727253809835</v>
+        <v>16.95162147829105</v>
       </c>
       <c r="E195">
-        <v>16.96159468852833</v>
+        <v>17.34606517767408</v>
       </c>
       <c r="F195">
-        <v>17.01323095588936</v>
+        <v>17.06712027742221</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>16.87249196853212</v>
+        <v>17.49090034521443</v>
       </c>
       <c r="C196">
-        <v>17.25555044946801</v>
+        <v>16.91870714351278</v>
       </c>
       <c r="D196">
-        <v>16.98958405642326</v>
+        <v>16.84650652898033</v>
       </c>
       <c r="E196">
-        <v>16.85248764416287</v>
+        <v>17.25484653247985</v>
       </c>
       <c r="F196">
-        <v>16.89972929291881</v>
+        <v>16.95733108604225</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>16.75818435956484</v>
+        <v>17.39947555823658</v>
       </c>
       <c r="C197">
-        <v>17.16440405599428</v>
+        <v>16.81041139689071</v>
       </c>
       <c r="D197">
-        <v>16.88191013630349</v>
+        <v>16.74154000694449</v>
       </c>
       <c r="E197">
-        <v>16.74343638345188</v>
+        <v>17.16362882175851</v>
       </c>
       <c r="F197">
-        <v>16.78619802190178</v>
+        <v>16.84752082700784</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>16.64386397556811</v>
+        <v>17.3081149683978</v>
       </c>
       <c r="C198">
-        <v>17.07325860165311</v>
+        <v>16.70215012423589</v>
       </c>
       <c r="D198">
-        <v>16.77425302003982</v>
+        <v>16.63672362728284</v>
       </c>
       <c r="E198">
-        <v>16.63444231675689</v>
+        <v>17.07241204586544</v>
       </c>
       <c r="F198">
-        <v>16.67263964307562</v>
+        <v>16.73769133322099</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>16.52953329030638</v>
+        <v>17.21681907138132</v>
       </c>
       <c r="C199">
-        <v>16.98211408674174</v>
+        <v>16.59392524501173</v>
       </c>
       <c r="D199">
-        <v>16.66661492503635</v>
+        <v>16.5320590727576</v>
       </c>
       <c r="E199">
-        <v>16.52550681984389</v>
+        <v>16.98119620515833</v>
       </c>
       <c r="F199">
-        <v>16.55905661294715</v>
+        <v>16.62784441109556</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>16.41519472321296</v>
+        <v>17.1255883600049</v>
       </c>
       <c r="C200">
-        <v>16.89097051156219</v>
+        <v>16.48573863795806</v>
       </c>
       <c r="D200">
-        <v>16.55899804441279</v>
+        <v>16.42754799599183</v>
       </c>
       <c r="E200">
-        <v>16.4166312348838</v>
+        <v>16.88998129999833</v>
       </c>
       <c r="F200">
-        <v>16.44545134493062</v>
+        <v>16.51798183775978</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>16.30085064039219</v>
+        <v>17.0344233242348</v>
       </c>
       <c r="C201">
-        <v>16.79982787642133</v>
+        <v>16.37759214174391</v>
       </c>
       <c r="D201">
-        <v>16.45140454761367</v>
+        <v>16.32319202046467</v>
       </c>
       <c r="E201">
-        <v>16.30781687141997</v>
+        <v>16.79876733074857</v>
       </c>
       <c r="F201">
-        <v>16.3318262099808</v>
+        <v>16.40810536201279</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>16.18650335561147</v>
+        <v>16.94332445048989</v>
       </c>
       <c r="C202">
-        <v>16.70868618163099</v>
+        <v>16.2694875558064</v>
       </c>
       <c r="D202">
-        <v>16.34383658101486</v>
+        <v>16.21899275447756</v>
       </c>
       <c r="E202">
-        <v>16.19906500730953</v>
+        <v>16.70755429777717</v>
       </c>
       <c r="F202">
-        <v>16.21818353722324</v>
+        <v>16.29821670326012</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>16.07215513128341</v>
+        <v>16.8522922235571</v>
       </c>
       <c r="C203">
-        <v>16.61754542750814</v>
+        <v>16.16142664123797</v>
       </c>
       <c r="D203">
-        <v>16.23629626852726</v>
+        <v>16.11495178129119</v>
       </c>
       <c r="E203">
-        <v>16.09037688964387</v>
+        <v>16.61634220145621</v>
       </c>
       <c r="F203">
-        <v>16.10452561457589</v>
+        <v>16.18831755631264</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>15.9578081794366</v>
+        <v>16.76132712604429</v>
       </c>
       <c r="C204">
-        <v>16.52640561437489</v>
+        <v>16.05341111566377</v>
       </c>
       <c r="D204">
-        <v>16.1287857121981</v>
+        <v>16.01107065656787</v>
       </c>
       <c r="E204">
-        <v>15.98175373564702</v>
+        <v>16.52513104216134</v>
       </c>
       <c r="F204">
-        <v>15.99085468936853</v>
+        <v>16.07840958846685</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>15.843464662676</v>
+        <v>16.67042963839267</v>
       </c>
       <c r="C205">
-        <v>16.43526674255873</v>
+        <v>15.94544266650008</v>
       </c>
       <c r="D205">
-        <v>16.0213069928099</v>
+        <v>15.9073509196464</v>
       </c>
       <c r="E205">
-        <v>15.87319673354947</v>
+        <v>16.43392082027226</v>
       </c>
       <c r="F205">
-        <v>15.87717296895593</v>
+        <v>15.96849444060925</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>15.72912669513188</v>
+        <v>16.57960023842114</v>
       </c>
       <c r="C206">
-        <v>16.34412881239255</v>
+        <v>15.83752294429424</v>
       </c>
       <c r="D206">
-        <v>15.91386217047728</v>
+        <v>15.80379409332735</v>
       </c>
       <c r="E206">
-        <v>15.764707043438</v>
+        <v>16.342711536175</v>
       </c>
       <c r="F206">
-        <v>15.76348262132521</v>
+        <v>15.8585737257603</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>15.61479634339732</v>
+        <v>16.48883940276356</v>
       </c>
       <c r="C207">
-        <v>16.25299182421483</v>
+        <v>15.72965356373924</v>
       </c>
       <c r="D207">
-        <v>15.80645328524194</v>
+        <v>15.70040168168551</v>
       </c>
       <c r="E207">
-        <v>15.65628579808397</v>
+        <v>16.25150319025833</v>
       </c>
       <c r="F207">
-        <v>15.64978577569966</v>
+        <v>15.7486490341048</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>15.50047562745395</v>
+        <v>16.39814760652365</v>
       </c>
       <c r="C208">
-        <v>16.16185577836977</v>
+        <v>15.62183610532395</v>
       </c>
       <c r="D208">
-        <v>15.69908235766585</v>
+        <v>15.59717516386427</v>
       </c>
       <c r="E208">
-        <v>15.54793410375147</v>
+        <v>16.16029578291536</v>
       </c>
       <c r="F208">
-        <v>15.53608452313318</v>
+        <v>15.63872192997683</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>15.38616652158584</v>
+        <v>16.30752532330748</v>
       </c>
       <c r="C209">
-        <v>16.07072067520737</v>
+        <v>15.51407211620058</v>
       </c>
       <c r="D209">
-        <v>15.59175138942302</v>
+        <v>15.49411601323936</v>
       </c>
       <c r="E209">
-        <v>15.43965304098566</v>
+        <v>16.06908931454439</v>
       </c>
       <c r="F209">
-        <v>15.42238091710164</v>
+        <v>15.52879395308345</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>15.27187095528124</v>
+        <v>16.21697302492632</v>
       </c>
       <c r="C210">
-        <v>15.97958651508361</v>
+        <v>15.40636309992083</v>
       </c>
       <c r="D210">
-        <v>15.48446236388997</v>
+        <v>15.39122568607757</v>
       </c>
       <c r="E210">
-        <v>15.33144366538153</v>
+        <v>15.97788378554859</v>
       </c>
       <c r="F210">
-        <v>15.30867697408766</v>
+        <v>15.41886661672669</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>15.15759081412211</v>
+        <v>16.12649118248939</v>
       </c>
       <c r="C211">
-        <v>15.88845329836059</v>
+        <v>15.29871053834409</v>
       </c>
       <c r="D211">
-        <v>15.37721724673516</v>
+        <v>15.28850562360736</v>
       </c>
       <c r="E211">
-        <v>15.22330700833354</v>
+        <v>15.88667919633851</v>
       </c>
       <c r="F211">
-        <v>15.19497467415892</v>
+        <v>15.30894141299817</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>15.04332794066128</v>
+        <v>16.03608026620027</v>
       </c>
       <c r="C212">
-        <v>15.79732102540664</v>
+        <v>15.19111588288099</v>
       </c>
       <c r="D212">
-        <v>15.27001798650745</v>
+        <v>15.18595725050696</v>
       </c>
       <c r="E212">
-        <v>15.11524407776713</v>
+        <v>15.79547554732832</v>
       </c>
       <c r="F212">
-        <v>15.08127596154234</v>
+        <v>15.19901980970159</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>14.92908413528715</v>
+        <v>15.94574074540703</v>
       </c>
       <c r="C213">
-        <v>15.7061896965965</v>
+        <v>15.08358055210115</v>
       </c>
       <c r="D213">
-        <v>15.16286651522485</v>
+        <v>15.08358198665897</v>
       </c>
       <c r="E213">
-        <v>15.00725585885294</v>
+        <v>15.70427283893731</v>
       </c>
       <c r="F213">
-        <v>14.96758274518874</v>
+        <v>15.08910325166556</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>14.81486115707576</v>
+        <v>15.8554730883958</v>
       </c>
       <c r="C214">
-        <v>15.61505931231146</v>
+        <v>14.97610593496028</v>
       </c>
       <c r="D214">
-        <v>15.05576474896249</v>
+        <v>14.98138123948232</v>
       </c>
       <c r="E214">
-        <v>14.89934331470423</v>
+        <v>15.61307107159096</v>
       </c>
       <c r="F214">
-        <v>14.85389689933345</v>
+        <v>14.97919315874155</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>14.70066072463028</v>
+        <v>15.76527776327137</v>
       </c>
       <c r="C215">
-        <v>15.52392987293953</v>
+        <v>14.86869339162642</v>
       </c>
       <c r="D215">
-        <v>14.94871458843966</v>
+        <v>14.87935640316092</v>
       </c>
       <c r="E215">
-        <v>14.79150738705805</v>
+        <v>15.52187024572064</v>
       </c>
       <c r="F215">
-        <v>14.7402202640505</v>
+        <v>14.8692909310289</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>14.58648451690781</v>
+        <v>15.67515523783797</v>
       </c>
       <c r="C216">
-        <v>15.43280137887558</v>
+        <v>14.76134424242678</v>
       </c>
       <c r="D216">
-        <v>14.84171791960938</v>
+        <v>14.7775088639114</v>
       </c>
       <c r="E216">
-        <v>14.6837489969408</v>
+        <v>15.4306703617648</v>
       </c>
       <c r="F216">
-        <v>14.62655464579982</v>
+        <v>14.75939794582766</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>14.47233417403337</v>
+        <v>15.58510597965891</v>
       </c>
       <c r="C217">
-        <v>15.34167383052149</v>
+        <v>14.65405978868504</v>
       </c>
       <c r="D217">
-        <v>14.73477661424507</v>
+        <v>14.67584000283887</v>
       </c>
       <c r="E217">
-        <v>14.57606904531871</v>
+        <v>15.3394714201674</v>
       </c>
       <c r="F217">
-        <v>14.51290181796979</v>
+        <v>14.64951555888899</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>14.35821129810117</v>
+        <v>15.49513045593915</v>
       </c>
       <c r="C218">
-        <v>15.25054722828637</v>
+        <v>14.54684130895441</v>
       </c>
       <c r="D218">
-        <v>14.62789253053208</v>
+        <v>14.57435119309667</v>
       </c>
       <c r="E218">
-        <v>14.46846841373392</v>
+        <v>15.2482734213786</v>
       </c>
       <c r="F218">
-        <v>14.39926352141079</v>
+        <v>14.53964510278104</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>14.24411745396315</v>
+        <v>15.40522913421923</v>
       </c>
       <c r="C219">
-        <v>15.15942157258672</v>
+        <v>14.43969005181055</v>
       </c>
       <c r="D219">
-        <v>14.5210675136565</v>
+        <v>14.47304379630193</v>
       </c>
       <c r="E219">
-        <v>14.36094796492666</v>
+        <v>15.15707636585544</v>
       </c>
       <c r="F219">
-        <v>14.28564146496353</v>
+        <v>14.42978789102916</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>14.130054170005</v>
+        <v>15.31540248232812</v>
       </c>
       <c r="C220">
-        <v>15.06829686384656</v>
+        <v>14.33260724042848</v>
       </c>
       <c r="D220">
-        <v>14.41430339639923</v>
+        <v>14.37191917412899</v>
       </c>
       <c r="E220">
-        <v>14.25350854344418</v>
+        <v>15.06588025406175</v>
       </c>
       <c r="F220">
-        <v>14.17203732598141</v>
+        <v>14.31994521617375</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>14.01602293890877</v>
+        <v>15.22565096845547</v>
       </c>
       <c r="C221">
-        <v>14.9771731024977</v>
+        <v>14.22559407335863</v>
       </c>
       <c r="D221">
-        <v>14.30760199973062</v>
+        <v>14.27097868240291</v>
       </c>
       <c r="E221">
-        <v>14.14615097623679</v>
+        <v>14.97468508646949</v>
       </c>
       <c r="F221">
-        <v>14.05845275084562</v>
+        <v>14.21011835043983</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>13.90202521840336</v>
+        <v>15.13597506114481</v>
       </c>
       <c r="C222">
-        <v>14.88605028897985</v>
+        <v>14.11865171524459</v>
       </c>
       <c r="D222">
-        <v>14.20096513340317</v>
+        <v>14.17022367234176</v>
       </c>
       <c r="E222">
-        <v>14.03887607324173</v>
+        <v>14.88349086355706</v>
       </c>
       <c r="F222">
-        <v>13.9448893554752</v>
+        <v>14.10030854452918</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>13.78806243200218</v>
+        <v>15.04637522977614</v>
       </c>
       <c r="C223">
-        <v>14.79492842374088</v>
+        <v>14.01178131195344</v>
       </c>
       <c r="D223">
-        <v>14.09439459655465</v>
+        <v>14.06965548884867</v>
       </c>
       <c r="E223">
-        <v>13.93168462795525</v>
+        <v>14.79229758580995</v>
       </c>
       <c r="F223">
-        <v>13.83134872582887</v>
+        <v>13.99051703082113</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>13.67413596972814</v>
+        <v>14.9568519445978</v>
       </c>
       <c r="C224">
-        <v>14.70380750723697</v>
+        <v>13.90498399347378</v>
       </c>
       <c r="D224">
-        <v>13.98789217830887</v>
+        <v>13.96927547874328</v>
       </c>
       <c r="E224">
-        <v>13.82457741799355</v>
+        <v>14.70110525372157</v>
       </c>
       <c r="F224">
-        <v>13.71783241840051</v>
+        <v>13.88074502236002</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>13.56024718882618</v>
+        <v>14.86740567682264</v>
       </c>
       <c r="C225">
-        <v>14.61268753993288</v>
+        <v>13.7982608630706</v>
       </c>
       <c r="D225">
-        <v>13.88145965837563</v>
+        <v>13.86908498588657</v>
       </c>
       <c r="E225">
-        <v>13.717555205643</v>
+        <v>14.60991386779308</v>
       </c>
       <c r="F225">
-        <v>13.60434196070931</v>
+        <v>13.77099371304446</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>13.44639741446324</v>
+        <v>14.77803689873301</v>
       </c>
       <c r="C226">
-        <v>14.52156852230211</v>
+        <v>13.6916130025404</v>
       </c>
       <c r="D226">
-        <v>13.77509880766704</v>
+        <v>13.76908535149543</v>
       </c>
       <c r="E226">
-        <v>13.61061873840012</v>
+        <v>14.51872342853587</v>
       </c>
       <c r="F226">
-        <v>13.49087885178269</v>
+        <v>13.66126427677881</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>13.33258794041586</v>
+        <v>14.68874608395284</v>
       </c>
       <c r="C227">
-        <v>14.43045045482716</v>
+        <v>13.58504147293819</v>
       </c>
       <c r="D227">
-        <v>13.66881138890562</v>
+        <v>13.66927791599453</v>
       </c>
       <c r="E227">
-        <v>13.50376874950191</v>
+        <v>14.42753393646814</v>
       </c>
       <c r="F227">
-        <v>13.3774445626335</v>
+        <v>13.55155786987711</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>13.2188200297455</v>
+        <v>14.59953370755552</v>
       </c>
       <c r="C228">
-        <v>14.33933333799972</v>
+        <v>13.47854730735962</v>
       </c>
       <c r="D228">
-        <v>13.56259915723881</v>
+        <v>13.56966402239598</v>
       </c>
       <c r="E228">
-        <v>13.39700595844696</v>
+        <v>14.33634539211599</v>
       </c>
       <c r="F228">
-        <v>13.26404053673054</v>
+        <v>13.44187563081754</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>13.10509491546157</v>
+        <v>14.51040024619198</v>
       </c>
       <c r="C229">
-        <v>14.24821717232097</v>
+        <v>13.37213152037079</v>
       </c>
       <c r="D229">
-        <v>13.45646386086905</v>
+        <v>13.47024501403085</v>
       </c>
       <c r="E229">
-        <v>13.29033107150778</v>
+        <v>14.2451577960148</v>
       </c>
       <c r="F229">
-        <v>13.15066819046108</v>
+        <v>13.33221868004041</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>12.99141380117243</v>
+        <v>14.42134617829161</v>
       </c>
       <c r="C230">
-        <v>14.15710195830175</v>
+        <v>13.26579511652538</v>
       </c>
       <c r="D230">
-        <v>13.35040724167331</v>
+        <v>13.37102223319522</v>
       </c>
       <c r="E230">
-        <v>13.18374478223494</v>
+        <v>14.15397114870892</v>
       </c>
       <c r="F230">
-        <v>13.03732891358928</v>
+        <v>13.22258811940159</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>12.87777786172434</v>
+        <v>14.33237198415436</v>
       </c>
       <c r="C231">
-        <v>14.06598769646287</v>
+        <v>13.15953907701279</v>
       </c>
       <c r="D231">
-        <v>13.24443103583755</v>
+        <v>13.27199702671051</v>
       </c>
       <c r="E231">
-        <v>13.07724777195343</v>
+        <v>14.06278545075526</v>
       </c>
       <c r="F231">
-        <v>12.92402406970715</v>
+        <v>13.1129850339027</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>12.76418824382852</v>
+        <v>14.24347814612102</v>
       </c>
       <c r="C232">
-        <v>13.97487438733536</v>
+        <v>13.05336436524734</v>
       </c>
       <c r="D232">
-        <v>13.13853697450321</v>
+        <v>13.17317074435108</v>
       </c>
       <c r="E232">
-        <v>12.97084071025164</v>
+        <v>13.97160070271817</v>
       </c>
       <c r="F232">
-        <v>12.81075499667959</v>
+        <v>13.00341049207256</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>12.65064606667648</v>
+        <v>14.15466514873546</v>
       </c>
       <c r="C233">
-        <v>13.8837620314607</v>
+        <v>12.94727192754983</v>
       </c>
       <c r="D233">
-        <v>13.03272678440214</v>
+        <v>13.07454473900301</v>
       </c>
       <c r="E233">
-        <v>12.86452425546371</v>
+        <v>13.88041690517068</v>
       </c>
       <c r="F233">
-        <v>12.69752300708399</v>
+        <v>12.89386554545069</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>12.53715242254366</v>
+        <v>14.06593347903132</v>
       </c>
       <c r="C234">
-        <v>13.79265062939114</v>
+        <v>12.84126269011144</v>
       </c>
       <c r="D234">
-        <v>12.92700218851689</v>
+        <v>12.97612036538919</v>
       </c>
       <c r="E234">
-        <v>12.7582990551453</v>
+        <v>13.78923405869685</v>
       </c>
       <c r="F234">
-        <v>12.58432938864071</v>
+        <v>12.78435122829448</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>12.42370837738154</v>
+        <v>13.97728362646958</v>
       </c>
       <c r="C235">
-        <v>13.70154018168998</v>
+        <v>12.73533756060929</v>
       </c>
       <c r="D235">
-        <v>12.82136490674686</v>
+        <v>12.87789898577237</v>
       </c>
       <c r="E235">
-        <v>12.65216574654363</v>
+        <v>13.69805216389107</v>
       </c>
       <c r="F235">
-        <v>12.47117540464037</v>
+        <v>12.6748685587416</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>12.31031497139851</v>
+        <v>13.88871608316003</v>
       </c>
       <c r="C236">
-        <v>13.61043068893185</v>
+        <v>12.62949743738755</v>
       </c>
       <c r="D236">
-        <v>12.71581665656318</v>
+        <v>12.77988196690549</v>
       </c>
       <c r="E236">
-        <v>12.54612495706198</v>
+        <v>13.60687122136231</v>
       </c>
       <c r="F236">
-        <v>12.3580622943639</v>
+        <v>12.56541853969571</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>12.19697321962956</v>
+        <v>13.8002313440598</v>
       </c>
       <c r="C237">
-        <v>13.51932215170303</v>
+        <v>12.5237432007328</v>
       </c>
       <c r="D237">
-        <v>12.61035915370093</v>
+        <v>12.6820706807439</v>
       </c>
       <c r="E237">
-        <v>12.44017730471941</v>
+        <v>13.5156912317282</v>
       </c>
       <c r="F237">
-        <v>12.24499127349613</v>
+        <v>12.4560021580641</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>12.08368411249436</v>
+        <v>13.71182990734831</v>
       </c>
       <c r="C238">
-        <v>13.42821457060177</v>
+        <v>12.41807571628593</v>
       </c>
       <c r="D238">
-        <v>12.50499411284886</v>
+        <v>12.58446650497514</v>
       </c>
       <c r="E238">
-        <v>12.33432339860591</v>
+        <v>13.42451219561624</v>
       </c>
       <c r="F238">
-        <v>12.13196353453573</v>
+        <v>12.3466203846755</v>
       </c>
     </row>
   </sheetData>
